--- a/results/mp/deberta/corona/confidence/126/stop-words-topk-0.35/root_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/126/stop-words-topk-0.35/root_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1174" uniqueCount="1029">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="1029">
   <si>
     <t>anchor score</t>
   </si>
@@ -61,796 +61,796 @@
     <t>19</t>
   </si>
   <si>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>arrested</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>anxiety</t>
+  </si>
+  <si>
+    <t>fear</t>
+  </si>
+  <si>
+    <t>worse</t>
+  </si>
+  <si>
+    <t>death</t>
+  </si>
+  <si>
+    <t>disgusting</t>
+  </si>
+  <si>
+    <t>accused</t>
+  </si>
+  <si>
+    <t>kills</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>stress</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>unemployment</t>
+  </si>
+  <si>
+    <t>infected</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>killing</t>
+  </si>
+  <si>
+    <t>dangerous</t>
+  </si>
+  <si>
+    <t>risk</t>
+  </si>
+  <si>
+    <t>disruption</t>
+  </si>
+  <si>
+    <t>threats</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>threat</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>struggling</t>
+  </si>
+  <si>
+    <t>threatening</t>
+  </si>
+  <si>
+    <t>cause</t>
+  </si>
+  <si>
+    <t>critical</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>chaos</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>waste</t>
+  </si>
+  <si>
+    <t>destroy</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>fake</t>
+  </si>
+  <si>
+    <t>madness</t>
+  </si>
+  <si>
+    <t>recession</t>
+  </si>
+  <si>
+    <t>attack</t>
+  </si>
+  <si>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>crash</t>
+  </si>
+  <si>
+    <t>awful</t>
+  </si>
+  <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>scare</t>
+  </si>
+  <si>
+    <t>suffering</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
+    <t>banned</t>
+  </si>
+  <si>
+    <t>affected</t>
+  </si>
+  <si>
+    <t>really</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>failure</t>
+  </si>
+  <si>
+    <t>desperate</t>
+  </si>
+  <si>
+    <t>symptoms</t>
+  </si>
+  <si>
+    <t>crime</t>
+  </si>
+  <si>
+    <t>fight</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>risks</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>kill</t>
+  </si>
+  <si>
+    <t>horrible</t>
+  </si>
+  <si>
+    <t>warned</t>
+  </si>
+  <si>
+    <t>evil</t>
+  </si>
+  <si>
+    <t>sorry</t>
+  </si>
+  <si>
+    <t>victim</t>
+  </si>
+  <si>
+    <t>vulnerable</t>
+  </si>
+  <si>
+    <t>recipe</t>
+  </si>
+  <si>
+    <t>way</t>
+  </si>
+  <si>
+    <t>go</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>come</t>
+  </si>
+  <si>
+    <t>customers</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>insights</t>
+  </si>
+  <si>
+    <t>especially</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>feel</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>problem</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>fighting</t>
+  </si>
+  <si>
+    <t>debt</t>
+  </si>
+  <si>
+    <t>supermarkets</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>complaints</t>
+  </si>
+  <si>
+    <t>demand</t>
+  </si>
+  <si>
+    <t>shock</t>
+  </si>
+  <si>
+    <t>blame</t>
+  </si>
+  <si>
+    <t>lowest</t>
+  </si>
+  <si>
+    <t>disease</t>
+  </si>
+  <si>
+    <t>depression</t>
+  </si>
+  <si>
+    <t>misleading</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>upset</t>
+  </si>
+  <si>
+    <t>hurt</t>
+  </si>
+  <si>
+    <t>stolen</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>suffer</t>
+  </si>
+  <si>
+    <t>trouble</t>
+  </si>
+  <si>
+    <t>damage</t>
+  </si>
+  <si>
+    <t>charged</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>worried</t>
+  </si>
+  <si>
+    <t>stupid</t>
+  </si>
+  <si>
+    <t>dead</t>
+  </si>
+  <si>
+    <t>flour</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>severe</t>
+  </si>
+  <si>
+    <t>battle</t>
+  </si>
+  <si>
+    <t>deliver</t>
+  </si>
+  <si>
+    <t>inflated</t>
+  </si>
+  <si>
+    <t>quick</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>friendly</t>
+  </si>
+  <si>
+    <t>volunteers</t>
+  </si>
+  <si>
+    <t>donations</t>
+  </si>
+  <si>
+    <t>volunteer</t>
+  </si>
+  <si>
+    <t>extra</t>
+  </si>
+  <si>
+    <t>power</t>
+  </si>
+  <si>
+    <t>wind</t>
+  </si>
+  <si>
+    <t>certainly</t>
+  </si>
+  <si>
+    <t>team</t>
+  </si>
+  <si>
+    <t>hub</t>
+  </si>
+  <si>
+    <t>may</t>
+  </si>
+  <si>
+    <t>amazon</t>
+  </si>
+  <si>
+    <t>incredible</t>
+  </si>
+  <si>
+    <t>stores</t>
+  </si>
+  <si>
+    <t>story</t>
+  </si>
+  <si>
+    <t>become</t>
+  </si>
+  <si>
+    <t>tech</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>pc</t>
+  </si>
+  <si>
+    <t>trading</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>non</t>
+  </si>
+  <si>
+    <t>shift</t>
+  </si>
+  <si>
+    <t>mortgage</t>
+  </si>
+  <si>
+    <t>national</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>advantage</t>
+  </si>
+  <si>
+    <t>surprise</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>banks</t>
+  </si>
+  <si>
+    <t>social</t>
+  </si>
+  <si>
+    <t>inventory</t>
+  </si>
+  <si>
+    <t>hot</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>started</t>
+  </si>
+  <si>
+    <t>dedicated</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>fail</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>brilliant</t>
+  </si>
+  <si>
+    <t>provide</t>
+  </si>
+  <si>
+    <t>daily</t>
+  </si>
+  <si>
+    <t>survive</t>
+  </si>
+  <si>
+    <t>india</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>website</t>
+  </si>
+  <si>
+    <t>profit</t>
+  </si>
+  <si>
+    <t>stimulus</t>
+  </si>
+  <si>
+    <t>putting</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>rest</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>experience</t>
+  </si>
+  <si>
+    <t>eco</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>march</t>
+  </si>
+  <si>
+    <t>helpful</t>
+  </si>
+  <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>global</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>st</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>shops</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>got</t>
+  </si>
+  <si>
+    <t>gold</t>
+  </si>
+  <si>
+    <t>everything</t>
+  </si>
+  <si>
+    <t>markets</t>
+  </si>
+  <si>
+    <t>set</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>retailers</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>due</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>supply</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>self</t>
+  </si>
+  <si>
+    <t>companies</t>
+  </si>
+  <si>
+    <t>community</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>ia</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>deadly</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>real</t>
+  </si>
+  <si>
+    <t>options</t>
+  </si>
+  <si>
+    <t>going</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>serious</t>
+  </si>
+  <si>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>see</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>uncertainty</t>
+  </si>
+  <si>
+    <t>worry</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>causes</t>
+  </si>
+  <si>
+    <t>combat</t>
+  </si>
+  <si>
+    <t>problems</t>
+  </si>
+  <si>
+    <t>lose</t>
+  </si>
+  <si>
+    <t>complaint</t>
+  </si>
+  <si>
+    <t>outbreak</t>
+  </si>
+  <si>
+    <t>virus</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>arrested</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>anxiety</t>
-  </si>
-  <si>
-    <t>fear</t>
-  </si>
-  <si>
-    <t>worse</t>
-  </si>
-  <si>
     <t>please</t>
-  </si>
-  <si>
-    <t>death</t>
-  </si>
-  <si>
-    <t>disgusting</t>
-  </si>
-  <si>
-    <t>accused</t>
-  </si>
-  <si>
-    <t>kills</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>stress</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>unemployment</t>
-  </si>
-  <si>
-    <t>infected</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>killing</t>
-  </si>
-  <si>
-    <t>dangerous</t>
-  </si>
-  <si>
-    <t>risk</t>
-  </si>
-  <si>
-    <t>disruption</t>
-  </si>
-  <si>
-    <t>threats</t>
-  </si>
-  <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>threat</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>struggling</t>
-  </si>
-  <si>
-    <t>threatening</t>
-  </si>
-  <si>
-    <t>cause</t>
-  </si>
-  <si>
-    <t>critical</t>
-  </si>
-  <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>chaos</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>waste</t>
-  </si>
-  <si>
-    <t>destroy</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>fake</t>
-  </si>
-  <si>
-    <t>madness</t>
-  </si>
-  <si>
-    <t>recession</t>
-  </si>
-  <si>
-    <t>attack</t>
-  </si>
-  <si>
-    <t>shame</t>
-  </si>
-  <si>
-    <t>crash</t>
-  </si>
-  <si>
-    <t>awful</t>
-  </si>
-  <si>
-    <t>sick</t>
-  </si>
-  <si>
-    <t>scare</t>
-  </si>
-  <si>
-    <t>suffering</t>
-  </si>
-  <si>
-    <t>illegal</t>
-  </si>
-  <si>
-    <t>banned</t>
-  </si>
-  <si>
-    <t>affected</t>
-  </si>
-  <si>
-    <t>really</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>toilet</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>people</t>
-  </si>
-  <si>
-    <t>failure</t>
-  </si>
-  <si>
-    <t>desperate</t>
-  </si>
-  <si>
-    <t>symptoms</t>
-  </si>
-  <si>
-    <t>crime</t>
-  </si>
-  <si>
-    <t>fight</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>risks</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>kill</t>
-  </si>
-  <si>
-    <t>horrible</t>
-  </si>
-  <si>
-    <t>warned</t>
-  </si>
-  <si>
-    <t>evil</t>
-  </si>
-  <si>
-    <t>sorry</t>
-  </si>
-  <si>
-    <t>victim</t>
-  </si>
-  <si>
-    <t>vulnerable</t>
-  </si>
-  <si>
-    <t>recipe</t>
-  </si>
-  <si>
-    <t>way</t>
-  </si>
-  <si>
-    <t>go</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>come</t>
-  </si>
-  <si>
-    <t>customers</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>insights</t>
-  </si>
-  <si>
-    <t>especially</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>feel</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>problem</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>fighting</t>
-  </si>
-  <si>
-    <t>debt</t>
-  </si>
-  <si>
-    <t>supermarkets</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>complaints</t>
-  </si>
-  <si>
-    <t>demand</t>
-  </si>
-  <si>
-    <t>shock</t>
-  </si>
-  <si>
-    <t>blame</t>
-  </si>
-  <si>
-    <t>lowest</t>
-  </si>
-  <si>
-    <t>disease</t>
-  </si>
-  <si>
-    <t>depression</t>
-  </si>
-  <si>
-    <t>misleading</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>upset</t>
-  </si>
-  <si>
-    <t>hurt</t>
-  </si>
-  <si>
-    <t>stolen</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>suffer</t>
-  </si>
-  <si>
-    <t>trouble</t>
-  </si>
-  <si>
-    <t>damage</t>
-  </si>
-  <si>
-    <t>charged</t>
-  </si>
-  <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>worried</t>
-  </si>
-  <si>
-    <t>stupid</t>
-  </si>
-  <si>
-    <t>dead</t>
-  </si>
-  <si>
-    <t>flour</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>severe</t>
-  </si>
-  <si>
-    <t>battle</t>
-  </si>
-  <si>
-    <t>deliver</t>
-  </si>
-  <si>
-    <t>inflated</t>
-  </si>
-  <si>
-    <t>quick</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>friendly</t>
-  </si>
-  <si>
-    <t>volunteers</t>
-  </si>
-  <si>
-    <t>donations</t>
-  </si>
-  <si>
-    <t>volunteer</t>
-  </si>
-  <si>
-    <t>extra</t>
-  </si>
-  <si>
-    <t>power</t>
-  </si>
-  <si>
-    <t>wind</t>
-  </si>
-  <si>
-    <t>certainly</t>
-  </si>
-  <si>
-    <t>team</t>
-  </si>
-  <si>
-    <t>hub</t>
-  </si>
-  <si>
-    <t>may</t>
-  </si>
-  <si>
-    <t>amazon</t>
-  </si>
-  <si>
-    <t>incredible</t>
-  </si>
-  <si>
-    <t>stores</t>
-  </si>
-  <si>
-    <t>story</t>
-  </si>
-  <si>
-    <t>become</t>
-  </si>
-  <si>
-    <t>tech</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>pc</t>
-  </si>
-  <si>
-    <t>trading</t>
-  </si>
-  <si>
-    <t>r</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
-    <t>non</t>
-  </si>
-  <si>
-    <t>shift</t>
-  </si>
-  <si>
-    <t>mortgage</t>
-  </si>
-  <si>
-    <t>national</t>
-  </si>
-  <si>
-    <t>healthcare</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>advantage</t>
-  </si>
-  <si>
-    <t>surprise</t>
-  </si>
-  <si>
-    <t>simple</t>
-  </si>
-  <si>
-    <t>banks</t>
-  </si>
-  <si>
-    <t>social</t>
-  </si>
-  <si>
-    <t>inventory</t>
-  </si>
-  <si>
-    <t>hot</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>started</t>
-  </si>
-  <si>
-    <t>dedicated</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>fail</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>brilliant</t>
-  </si>
-  <si>
-    <t>provide</t>
-  </si>
-  <si>
-    <t>daily</t>
-  </si>
-  <si>
-    <t>survive</t>
-  </si>
-  <si>
-    <t>india</t>
-  </si>
-  <si>
-    <t>q</t>
-  </si>
-  <si>
-    <t>website</t>
-  </si>
-  <si>
-    <t>profit</t>
-  </si>
-  <si>
-    <t>stimulus</t>
-  </si>
-  <si>
-    <t>putting</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>rest</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>experience</t>
-  </si>
-  <si>
-    <t>eco</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>march</t>
-  </si>
-  <si>
-    <t>helpful</t>
-  </si>
-  <si>
-    <t>face</t>
-  </si>
-  <si>
-    <t>financial</t>
-  </si>
-  <si>
-    <t>global</t>
-  </si>
-  <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>st</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>shops</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>got</t>
-  </si>
-  <si>
-    <t>gold</t>
-  </si>
-  <si>
-    <t>everything</t>
-  </si>
-  <si>
-    <t>markets</t>
-  </si>
-  <si>
-    <t>set</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>retailers</t>
-  </si>
-  <si>
-    <t>week</t>
-  </si>
-  <si>
-    <t>due</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>supply</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>self</t>
-  </si>
-  <si>
-    <t>companies</t>
-  </si>
-  <si>
-    <t>community</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>ia</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>today</t>
-  </si>
-  <si>
-    <t>deadly</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>real</t>
-  </si>
-  <si>
-    <t>options</t>
-  </si>
-  <si>
-    <t>going</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>serious</t>
-  </si>
-  <si>
-    <t>empty</t>
-  </si>
-  <si>
-    <t>see</t>
-  </si>
-  <si>
-    <t>line</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>uncertainty</t>
-  </si>
-  <si>
-    <t>worry</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>causes</t>
-  </si>
-  <si>
-    <t>combat</t>
-  </si>
-  <si>
-    <t>problems</t>
-  </si>
-  <si>
-    <t>lose</t>
-  </si>
-  <si>
-    <t>complaint</t>
-  </si>
-  <si>
-    <t>outbreak</t>
-  </si>
-  <si>
-    <t>virus</t>
-  </si>
-  <si>
-    <t>difficult</t>
   </si>
   <si>
     <t>san</t>
@@ -3466,10 +3466,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3527,7 +3527,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.02986407951275005</v>
+        <v>0.03032305444652914</v>
       </c>
       <c r="C3">
         <v>147</v>
@@ -3548,7 +3548,7 @@
         <v>145</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K3">
         <v>0.01082404074847129</v>
@@ -3577,7 +3577,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.02118879824399673</v>
+        <v>0.02151444455319386</v>
       </c>
       <c r="C4">
         <v>74</v>
@@ -3627,7 +3627,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.01073661218490591</v>
+        <v>0.01090162098299979</v>
       </c>
       <c r="C5">
         <v>19</v>
@@ -3648,7 +3648,7 @@
         <v>56</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K5">
         <v>0.008581569751076133</v>
@@ -3677,7 +3677,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.009852591054735217</v>
+        <v>0.01000401351277444</v>
       </c>
       <c r="C6">
         <v>16</v>
@@ -3698,7 +3698,7 @@
         <v>20</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>15</v>
+        <v>277</v>
       </c>
       <c r="K6">
         <v>0.007783854043659238</v>
@@ -3707,19 +3707,19 @@
         <v>181</v>
       </c>
       <c r="M6">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="N6">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O6">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>148</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3727,7 +3727,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.00921625502470322</v>
+        <v>0.009357897764364704</v>
       </c>
       <c r="C7">
         <v>14</v>
@@ -3748,7 +3748,7 @@
         <v>15</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K7">
         <v>0.007631853419091521</v>
@@ -3777,7 +3777,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.008169336935342169</v>
+        <v>0.008294889804879531</v>
       </c>
       <c r="C8">
         <v>11</v>
@@ -3798,7 +3798,7 @@
         <v>2</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>25</v>
+        <v>278</v>
       </c>
       <c r="K8">
         <v>0.007156507187380232</v>
@@ -3807,19 +3807,19 @@
         <v>153</v>
       </c>
       <c r="M8">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="N8">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O8">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3827,7 +3827,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.008169336935342169</v>
+        <v>0.008294889804879531</v>
       </c>
       <c r="C9">
         <v>11</v>
@@ -3848,7 +3848,7 @@
         <v>1876</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K9">
         <v>0.006771980204819954</v>
@@ -3877,28 +3877,28 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.008169336935342169</v>
+        <v>0.007908867110867303</v>
       </c>
       <c r="C10">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D10">
-        <v>192</v>
+        <v>10</v>
       </c>
       <c r="E10">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>148</v>
+        <v>24</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K10">
         <v>0.006494424449082772</v>
@@ -3927,28 +3927,28 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.007789157146790997</v>
+        <v>0.007908867110867303</v>
       </c>
       <c r="C11">
         <v>10</v>
       </c>
       <c r="D11">
-        <v>10</v>
+        <v>360</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11">
-        <v>24</v>
+        <v>2747</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K11">
         <v>0.006442675222395981</v>
@@ -3977,28 +3977,28 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.007789157146790997</v>
+        <v>0.007503010134580832</v>
       </c>
       <c r="C12">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D12">
-        <v>360</v>
+        <v>9</v>
       </c>
       <c r="E12">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>2747</v>
+        <v>16</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K12">
         <v>0.006177429846095408</v>
@@ -4027,7 +4027,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.007389443291051412</v>
+        <v>0.007503010134580832</v>
       </c>
       <c r="C13">
         <v>9</v>
@@ -4045,10 +4045,10 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K13">
         <v>0.005871837236657799</v>
@@ -4077,28 +4077,28 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.007389443291051412</v>
+        <v>0.007503010134580832</v>
       </c>
       <c r="C14">
         <v>9</v>
       </c>
       <c r="D14">
-        <v>9</v>
+        <v>229</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14">
-        <v>6</v>
+        <v>2972</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K14">
         <v>0.005871837236657799</v>
@@ -4127,28 +4127,28 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.007389443291051412</v>
+        <v>0.007503010134580832</v>
       </c>
       <c r="C15">
         <v>9</v>
       </c>
       <c r="D15">
-        <v>229</v>
+        <v>43</v>
       </c>
       <c r="E15">
-        <v>0.96</v>
+        <v>0.79</v>
       </c>
       <c r="F15">
-        <v>0.04000000000000004</v>
+        <v>0.21</v>
       </c>
       <c r="G15" t="b">
         <v>1</v>
       </c>
       <c r="H15">
-        <v>2972</v>
+        <v>925</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K15">
         <v>0.005843263649880657</v>
@@ -4177,28 +4177,28 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.007389443291051412</v>
+        <v>0.007073905793964663</v>
       </c>
       <c r="C16">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D16">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="E16">
-        <v>0.79</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>0.21</v>
+        <v>1</v>
       </c>
       <c r="G16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>925</v>
+        <v>23</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K16">
         <v>0.005609437624908652</v>
@@ -4227,7 +4227,7 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.00696683394706119</v>
+        <v>0.007073905793964663</v>
       </c>
       <c r="C17">
         <v>8</v>
@@ -4245,10 +4245,10 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K17">
         <v>0.005579520410927478</v>
@@ -4277,7 +4277,7 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.00696683394706119</v>
+        <v>0.007073905793964663</v>
       </c>
       <c r="C18">
         <v>8</v>
@@ -4295,10 +4295,10 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K18">
         <v>0.004977041433628143</v>
@@ -4327,28 +4327,28 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.00696683394706119</v>
+        <v>0.006617032966832716</v>
       </c>
       <c r="C19">
+        <v>7</v>
+      </c>
+      <c r="D19">
+        <v>7</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19">
         <v>8</v>
       </c>
-      <c r="D19">
-        <v>8</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>16</v>
-      </c>
       <c r="J19" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K19">
         <v>0.004943298390777841</v>
@@ -4377,28 +4377,28 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.00696683394706119</v>
+        <v>0.006617032966832716</v>
       </c>
       <c r="C20">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D20">
-        <v>161</v>
+        <v>7</v>
       </c>
       <c r="E20">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>0.05000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K20">
         <v>0.004909323428791621</v>
@@ -4427,7 +4427,7 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.006516876425112239</v>
+        <v>0.006617032966832716</v>
       </c>
       <c r="C21">
         <v>7</v>
@@ -4445,7 +4445,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>279</v>
@@ -4477,7 +4477,7 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.006516876425112239</v>
+        <v>0.006617032966832716</v>
       </c>
       <c r="C22">
         <v>7</v>
@@ -4495,10 +4495,10 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K22">
         <v>0.00480595767492067</v>
@@ -4527,28 +4527,28 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.006516876425112239</v>
+        <v>0.006617032966832716</v>
       </c>
       <c r="C23">
         <v>7</v>
       </c>
       <c r="D23">
-        <v>7</v>
+        <v>79</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>0.91</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>788</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K23">
         <v>0.004771004791586822</v>
@@ -4577,13 +4577,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.006516876425112239</v>
+        <v>0.006126182121551326</v>
       </c>
       <c r="C24">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D24">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -4595,10 +4595,10 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K24">
         <v>0.004628554516715398</v>
@@ -4627,28 +4627,28 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.006516876425112239</v>
+        <v>0.006126182121551326</v>
       </c>
       <c r="C25">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D25">
-        <v>79</v>
+        <v>6</v>
       </c>
       <c r="E25">
-        <v>0.91</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>0.08999999999999997</v>
+        <v>1</v>
       </c>
       <c r="G25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>788</v>
+        <v>45</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K25">
         <v>0.004329616299388515</v>
@@ -4677,7 +4677,7 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.006033455182102801</v>
+        <v>0.006126182121551326</v>
       </c>
       <c r="C26">
         <v>6</v>
@@ -4695,10 +4695,10 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K26">
         <v>0.004290784875538066</v>
@@ -4727,7 +4727,7 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.006033455182102801</v>
+        <v>0.006126182121551326</v>
       </c>
       <c r="C27">
         <v>6</v>
@@ -4745,10 +4745,10 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K27">
         <v>0.004251598804727669</v>
@@ -4777,7 +4777,7 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.006033455182102801</v>
+        <v>0.006126182121551326</v>
       </c>
       <c r="C28">
         <v>6</v>
@@ -4795,10 +4795,10 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>6</v>
+        <v>143</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K28">
         <v>0.004131811351091469</v>
@@ -4827,13 +4827,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.006033455182102801</v>
+        <v>0.005592413565597529</v>
       </c>
       <c r="C29">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D29">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -4845,10 +4845,10 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K29">
         <v>0.004091102857326352</v>
@@ -4877,13 +4877,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.006033455182102801</v>
+        <v>0.005592413565597529</v>
       </c>
       <c r="C30">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D30">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -4895,7 +4895,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>143</v>
+        <v>33</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>280</v>
@@ -4927,7 +4927,7 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.005507765838223574</v>
+        <v>0.005592413565597529</v>
       </c>
       <c r="C31">
         <v>5</v>
@@ -4945,10 +4945,10 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K31">
         <v>0.003793932712467697</v>
@@ -4977,7 +4977,7 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.005507765838223574</v>
+        <v>0.005592413565597529</v>
       </c>
       <c r="C32">
         <v>5</v>
@@ -4995,10 +4995,10 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K32">
         <v>0.003793932712467697</v>
@@ -5027,7 +5027,7 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.005507765838223574</v>
+        <v>0.005592413565597529</v>
       </c>
       <c r="C33">
         <v>5</v>
@@ -5045,10 +5045,10 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>4</v>
+        <v>72</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K33">
         <v>0.003749557703909625</v>
@@ -5077,7 +5077,7 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.005507765838223574</v>
+        <v>0.005592413565597529</v>
       </c>
       <c r="C34">
         <v>5</v>
@@ -5095,10 +5095,10 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K34">
         <v>0.003659193636770138</v>
@@ -5127,7 +5127,7 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.005507765838223574</v>
+        <v>0.005592413565597529</v>
       </c>
       <c r="C35">
         <v>5</v>
@@ -5145,10 +5145,10 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>72</v>
+        <v>5</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K35">
         <v>0.003471415887536548</v>
@@ -5177,7 +5177,7 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.005507765838223574</v>
+        <v>0.005592413565597529</v>
       </c>
       <c r="C36">
         <v>5</v>
@@ -5195,10 +5195,10 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K36">
         <v>0.003373609841204553</v>
@@ -5227,28 +5227,28 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.005507765838223574</v>
+        <v>0.005592413565597529</v>
       </c>
       <c r="C37">
         <v>5</v>
       </c>
       <c r="D37">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="G37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K37">
         <v>0.003373609841204553</v>
@@ -5277,7 +5277,7 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.005507765838223574</v>
+        <v>0.005592413565597529</v>
       </c>
       <c r="C38">
         <v>5</v>
@@ -5295,7 +5295,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>281</v>
@@ -5327,28 +5327,28 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.005507765838223574</v>
+        <v>0.005592413565597529</v>
       </c>
       <c r="C39">
         <v>5</v>
       </c>
       <c r="D39">
-        <v>6</v>
+        <v>107</v>
       </c>
       <c r="E39">
-        <v>0.17</v>
+        <v>0.95</v>
       </c>
       <c r="F39">
-        <v>0.83</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G39" t="b">
         <v>1</v>
       </c>
       <c r="H39">
-        <v>49</v>
+        <v>311</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K39">
         <v>0.003115691111414901</v>
@@ -5377,25 +5377,25 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.005507765838223574</v>
+        <v>0.005592413565597529</v>
       </c>
       <c r="C40">
         <v>5</v>
       </c>
       <c r="D40">
-        <v>5</v>
+        <v>74</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="F40">
-        <v>1</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40">
-        <v>7</v>
+        <v>576</v>
       </c>
       <c r="J40" s="1" t="s">
         <v>282</v>
@@ -5427,25 +5427,25 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.005507765838223574</v>
+        <v>0.005592413565597529</v>
       </c>
       <c r="C41">
         <v>5</v>
       </c>
       <c r="D41">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="E41">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F41">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G41" t="b">
         <v>1</v>
       </c>
       <c r="H41">
-        <v>311</v>
+        <v>28</v>
       </c>
       <c r="J41" s="1" t="s">
         <v>283</v>
@@ -5477,28 +5477,28 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.005507765838223574</v>
+        <v>0.005592413565597529</v>
       </c>
       <c r="C42">
         <v>5</v>
       </c>
       <c r="D42">
-        <v>74</v>
+        <v>142</v>
       </c>
       <c r="E42">
-        <v>0.93</v>
+        <v>0.96</v>
       </c>
       <c r="F42">
-        <v>0.06999999999999995</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G42" t="b">
         <v>1</v>
       </c>
       <c r="H42">
-        <v>576</v>
+        <v>153</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K42">
         <v>0.003061501045233424</v>
@@ -5527,28 +5527,28 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.005507765838223574</v>
+        <v>0.005592413565597529</v>
       </c>
       <c r="C43">
         <v>5</v>
       </c>
       <c r="D43">
-        <v>78</v>
+        <v>5</v>
       </c>
       <c r="E43">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K43">
         <v>0.003006334345707555</v>
@@ -5577,28 +5577,28 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.005507765838223574</v>
+        <v>0.005002006756387222</v>
       </c>
       <c r="C44">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D44">
-        <v>142</v>
+        <v>4</v>
       </c>
       <c r="E44">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>0.04000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44">
-        <v>153</v>
+        <v>2</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K44">
         <v>0.003006334345707555</v>
@@ -5627,13 +5627,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.005507765838223574</v>
+        <v>0.005002006756387222</v>
       </c>
       <c r="C45">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D45">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -5645,10 +5645,10 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K45">
         <v>0.003006334345707555</v>
@@ -5677,7 +5677,7 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.004926295527367609</v>
+        <v>0.005002006756387222</v>
       </c>
       <c r="C46">
         <v>4</v>
@@ -5695,10 +5695,10 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K46">
         <v>0.003006334345707555</v>
@@ -5727,7 +5727,7 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.004926295527367609</v>
+        <v>0.005002006756387222</v>
       </c>
       <c r="C47">
         <v>4</v>
@@ -5745,10 +5745,10 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K47">
         <v>0.003006334345707555</v>
@@ -5777,7 +5777,7 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.004926295527367609</v>
+        <v>0.005002006756387222</v>
       </c>
       <c r="C48">
         <v>4</v>
@@ -5795,10 +5795,10 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K48">
         <v>0.002950136225057479</v>
@@ -5827,7 +5827,7 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.004926295527367609</v>
+        <v>0.005002006756387222</v>
       </c>
       <c r="C49">
         <v>4</v>
@@ -5845,10 +5845,10 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K49">
         <v>0.002950136225057479</v>
@@ -5877,7 +5877,7 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.004926295527367609</v>
+        <v>0.005002006756387222</v>
       </c>
       <c r="C50">
         <v>4</v>
@@ -5895,10 +5895,10 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K50">
         <v>0.002834399203151779</v>
@@ -5927,7 +5927,7 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.004926295527367609</v>
+        <v>0.005002006756387222</v>
       </c>
       <c r="C51">
         <v>4</v>
@@ -5945,10 +5945,10 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K51">
         <v>0.002774720957329396</v>
@@ -5977,25 +5977,25 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.004926295527367609</v>
+        <v>0.005002006756387222</v>
       </c>
       <c r="C52">
         <v>4</v>
       </c>
       <c r="D52">
-        <v>4</v>
+        <v>128</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F52">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H52">
-        <v>9</v>
+        <v>773</v>
       </c>
       <c r="J52" s="1" t="s">
         <v>284</v>
@@ -6027,25 +6027,25 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.004926295527367609</v>
+        <v>0.005002006756387222</v>
       </c>
       <c r="C53">
         <v>4</v>
       </c>
       <c r="D53">
-        <v>4</v>
+        <v>130</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F53">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53">
-        <v>3</v>
+        <v>764</v>
       </c>
       <c r="J53" s="1" t="s">
         <v>285</v>
@@ -6077,28 +6077,28 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.004926295527367609</v>
+        <v>0.005002006756387222</v>
       </c>
       <c r="C54">
         <v>4</v>
       </c>
       <c r="D54">
-        <v>128</v>
+        <v>54</v>
       </c>
       <c r="E54">
-        <v>0.97</v>
+        <v>0.93</v>
       </c>
       <c r="F54">
-        <v>0.03000000000000003</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G54" t="b">
         <v>1</v>
       </c>
       <c r="H54">
-        <v>773</v>
+        <v>295</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K54">
         <v>0.002651337678884757</v>
@@ -6127,28 +6127,28 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.004926295527367609</v>
+        <v>0.005002006756387222</v>
       </c>
       <c r="C55">
         <v>4</v>
       </c>
       <c r="D55">
-        <v>130</v>
+        <v>4</v>
       </c>
       <c r="E55">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F55">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H55">
-        <v>764</v>
+        <v>18</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K55">
         <v>0.002587440634234829</v>
@@ -6177,25 +6177,25 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.004926295527367609</v>
+        <v>0.004331864920932733</v>
       </c>
       <c r="C56">
+        <v>3</v>
+      </c>
+      <c r="D56">
+        <v>3</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56" t="b">
+        <v>0</v>
+      </c>
+      <c r="H56">
         <v>4</v>
-      </c>
-      <c r="D56">
-        <v>54</v>
-      </c>
-      <c r="E56">
-        <v>0.93</v>
-      </c>
-      <c r="F56">
-        <v>0.06999999999999995</v>
-      </c>
-      <c r="G56" t="b">
-        <v>1</v>
-      </c>
-      <c r="H56">
-        <v>295</v>
       </c>
       <c r="J56" s="1" t="s">
         <v>286</v>
@@ -6227,13 +6227,13 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.004926295527367609</v>
+        <v>0.004331864920932733</v>
       </c>
       <c r="C57">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D57">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -6245,7 +6245,7 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="J57" s="1" t="s">
         <v>287</v>
@@ -6277,7 +6277,7 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.004266297073250006</v>
+        <v>0.004331864920932733</v>
       </c>
       <c r="C58">
         <v>3</v>
@@ -6295,7 +6295,7 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J58" s="1" t="s">
         <v>288</v>
@@ -6327,7 +6327,7 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.004266297073250006</v>
+        <v>0.004331864920932733</v>
       </c>
       <c r="C59">
         <v>3</v>
@@ -6345,10 +6345,10 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K59">
         <v>0.002521925174128895</v>
@@ -6377,7 +6377,7 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.004266297073250006</v>
+        <v>0.004331864920932733</v>
       </c>
       <c r="C60">
         <v>3</v>
@@ -6395,10 +6395,10 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K60">
         <v>0.002521925174128895</v>
@@ -6427,7 +6427,7 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.004266297073250006</v>
+        <v>0.004331864920932733</v>
       </c>
       <c r="C61">
         <v>3</v>
@@ -6445,10 +6445,10 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K61">
         <v>0.002454661714395811</v>
@@ -6477,7 +6477,7 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.004266297073250006</v>
+        <v>0.004331864920932733</v>
       </c>
       <c r="C62">
         <v>3</v>
@@ -6495,7 +6495,7 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="J62" s="1" t="s">
         <v>289</v>
@@ -6527,7 +6527,7 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.004266297073250006</v>
+        <v>0.004331864920932733</v>
       </c>
       <c r="C63">
         <v>3</v>
@@ -6545,7 +6545,7 @@
         <v>0</v>
       </c>
       <c r="H63">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J63" s="1" t="s">
         <v>290</v>
@@ -6577,7 +6577,7 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.004266297073250006</v>
+        <v>0.004331864920932733</v>
       </c>
       <c r="C64">
         <v>3</v>
@@ -6595,10 +6595,10 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K64">
         <v>0.002385502395793411</v>
@@ -6627,7 +6627,7 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.004266297073250006</v>
+        <v>0.004331864920932733</v>
       </c>
       <c r="C65">
         <v>3</v>
@@ -6645,7 +6645,7 @@
         <v>0</v>
       </c>
       <c r="H65">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J65" s="1" t="s">
         <v>291</v>
@@ -6677,7 +6677,7 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.004266297073250006</v>
+        <v>0.004331864920932733</v>
       </c>
       <c r="C66">
         <v>3</v>
@@ -6695,7 +6695,7 @@
         <v>0</v>
       </c>
       <c r="H66">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J66" s="1" t="s">
         <v>292</v>
@@ -6727,7 +6727,7 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.004266297073250006</v>
+        <v>0.004331864920932733</v>
       </c>
       <c r="C67">
         <v>3</v>
@@ -6745,7 +6745,7 @@
         <v>0</v>
       </c>
       <c r="H67">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="J67" s="1" t="s">
         <v>293</v>
@@ -6777,25 +6777,25 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.004266297073250006</v>
+        <v>0.004331864920932733</v>
       </c>
       <c r="C68">
         <v>3</v>
       </c>
       <c r="D68">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>0.62</v>
       </c>
       <c r="F68">
-        <v>1</v>
+        <v>0.38</v>
       </c>
       <c r="G68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H68">
-        <v>4</v>
+        <v>66</v>
       </c>
       <c r="J68" s="1" t="s">
         <v>294</v>
@@ -6827,25 +6827,25 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.004266297073250006</v>
+        <v>0.004331864920932733</v>
       </c>
       <c r="C69">
         <v>3</v>
       </c>
       <c r="D69">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>0.91</v>
       </c>
       <c r="F69">
-        <v>1</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H69">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="J69" s="1" t="s">
         <v>295</v>
@@ -6877,28 +6877,28 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.004266297073250006</v>
+        <v>0.004331864920932733</v>
       </c>
       <c r="C70">
         <v>3</v>
       </c>
       <c r="D70">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="E70">
-        <v>0.62</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F70">
-        <v>0.38</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G70" t="b">
         <v>1</v>
       </c>
       <c r="H70">
-        <v>66</v>
+        <v>513</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K70">
         <v>0.002314277258357699</v>
@@ -6927,28 +6927,28 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.004266297073250006</v>
+        <v>0.004331864920932733</v>
       </c>
       <c r="C71">
         <v>3</v>
       </c>
       <c r="D71">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="E71">
-        <v>0.91</v>
+        <v>0.96</v>
       </c>
       <c r="F71">
-        <v>0.08999999999999997</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G71" t="b">
         <v>1</v>
       </c>
       <c r="H71">
-        <v>38</v>
+        <v>1090</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K71">
         <v>0.002314277258357699</v>
@@ -6977,25 +6977,25 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.004266297073250006</v>
+        <v>0.004331864920932733</v>
       </c>
       <c r="C72">
         <v>3</v>
       </c>
       <c r="D72">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E72">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="F72">
-        <v>0.06000000000000005</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G72" t="b">
         <v>1</v>
       </c>
       <c r="H72">
-        <v>513</v>
+        <v>156</v>
       </c>
       <c r="J72" s="1" t="s">
         <v>296</v>
@@ -7027,25 +7027,25 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.004266297073250006</v>
+        <v>0.004331864920932733</v>
       </c>
       <c r="C73">
         <v>3</v>
       </c>
       <c r="D73">
-        <v>71</v>
+        <v>6</v>
       </c>
       <c r="E73">
-        <v>0.96</v>
+        <v>0.5</v>
       </c>
       <c r="F73">
-        <v>0.04000000000000004</v>
+        <v>0.5</v>
       </c>
       <c r="G73" t="b">
         <v>1</v>
       </c>
       <c r="H73">
-        <v>1090</v>
+        <v>42</v>
       </c>
       <c r="J73" s="1" t="s">
         <v>297</v>
@@ -7077,25 +7077,25 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.004266297073250006</v>
+        <v>0.004331864920932733</v>
       </c>
       <c r="C74">
         <v>3</v>
       </c>
       <c r="D74">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="E74">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
       <c r="F74">
-        <v>0.05000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G74" t="b">
         <v>1</v>
       </c>
       <c r="H74">
-        <v>156</v>
+        <v>46</v>
       </c>
       <c r="J74" s="1" t="s">
         <v>298</v>
@@ -7127,28 +7127,28 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.004266297073250006</v>
+        <v>0.004331864920932733</v>
       </c>
       <c r="C75">
         <v>3</v>
       </c>
       <c r="D75">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E75">
-        <v>0.5</v>
+        <v>0.83</v>
       </c>
       <c r="F75">
-        <v>0.5</v>
+        <v>0.17</v>
       </c>
       <c r="G75" t="b">
         <v>1</v>
       </c>
       <c r="H75">
-        <v>42</v>
+        <v>109</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K75">
         <v>0.002240789320031482</v>
@@ -7177,28 +7177,28 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.004266297073250006</v>
+        <v>0.004331864920932733</v>
       </c>
       <c r="C76">
         <v>3</v>
       </c>
       <c r="D76">
-        <v>43</v>
+        <v>106</v>
       </c>
       <c r="E76">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="F76">
-        <v>0.06999999999999995</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G76" t="b">
         <v>1</v>
       </c>
       <c r="H76">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K76">
         <v>0.002240789320031482</v>
@@ -7227,28 +7227,28 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.004266297073250006</v>
+        <v>0.004331864920932733</v>
       </c>
       <c r="C77">
         <v>3</v>
       </c>
       <c r="D77">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="E77">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="F77">
-        <v>0.17</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G77" t="b">
         <v>1</v>
       </c>
       <c r="H77">
-        <v>109</v>
+        <v>37</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K77">
         <v>0.002164808149694257</v>
@@ -7277,25 +7277,25 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.004266297073250006</v>
+        <v>0.004331864920932733</v>
       </c>
       <c r="C78">
         <v>3</v>
       </c>
       <c r="D78">
-        <v>106</v>
+        <v>23</v>
       </c>
       <c r="E78">
-        <v>0.97</v>
+        <v>0.87</v>
       </c>
       <c r="F78">
-        <v>0.03000000000000003</v>
+        <v>0.13</v>
       </c>
       <c r="G78" t="b">
         <v>1</v>
       </c>
       <c r="H78">
-        <v>14</v>
+        <v>522</v>
       </c>
       <c r="J78" s="1" t="s">
         <v>299</v>
@@ -7327,25 +7327,25 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.004266297073250006</v>
+        <v>0.004331864920932733</v>
       </c>
       <c r="C79">
         <v>3</v>
       </c>
       <c r="D79">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="E79">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F79">
-        <v>0.05000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H79">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="J79" s="1" t="s">
         <v>300</v>
@@ -7377,28 +7377,28 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.004266297073250006</v>
+        <v>0.003536952896982332</v>
       </c>
       <c r="C80">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D80">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="E80">
-        <v>0.87</v>
+        <v>0</v>
       </c>
       <c r="F80">
-        <v>0.13</v>
+        <v>1</v>
       </c>
       <c r="G80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H80">
-        <v>522</v>
+        <v>5</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K80">
         <v>0.002164808149694257</v>
@@ -7427,13 +7427,13 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.004266297073250006</v>
+        <v>0.003536952896982332</v>
       </c>
       <c r="C81">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D81">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -7445,10 +7445,10 @@
         <v>0</v>
       </c>
       <c r="H81">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="K81">
         <v>0.002086061330162226</v>
@@ -7477,7 +7477,7 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.003483416973530595</v>
+        <v>0.003536952896982332</v>
       </c>
       <c r="C82">
         <v>2</v>
@@ -7527,7 +7527,7 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.003483416973530595</v>
+        <v>0.003536952896982332</v>
       </c>
       <c r="C83">
         <v>2</v>
@@ -7545,7 +7545,7 @@
         <v>0</v>
       </c>
       <c r="H83">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="J83" s="1" t="s">
         <v>302</v>
@@ -7577,7 +7577,7 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.003483416973530595</v>
+        <v>0.003536952896982332</v>
       </c>
       <c r="C84">
         <v>2</v>
@@ -7595,7 +7595,7 @@
         <v>0</v>
       </c>
       <c r="H84">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J84" s="1" t="s">
         <v>303</v>
@@ -7627,7 +7627,7 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0.003483416973530595</v>
+        <v>0.003536952896982332</v>
       </c>
       <c r="C85">
         <v>2</v>
@@ -7645,7 +7645,7 @@
         <v>0</v>
       </c>
       <c r="H85">
-        <v>78</v>
+        <v>4</v>
       </c>
       <c r="J85" s="1" t="s">
         <v>304</v>
@@ -7677,25 +7677,25 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>0.003483416973530595</v>
+        <v>0.003536952896982332</v>
       </c>
       <c r="C86">
         <v>2</v>
       </c>
       <c r="D86">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F86">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H86">
-        <v>9</v>
+        <v>118</v>
       </c>
       <c r="J86" s="1" t="s">
         <v>305</v>
@@ -7727,7 +7727,7 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>0.003483416973530595</v>
+        <v>0.003536952896982332</v>
       </c>
       <c r="C87">
         <v>2</v>
@@ -7745,7 +7745,7 @@
         <v>0</v>
       </c>
       <c r="H87">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="J87" s="1" t="s">
         <v>306</v>
@@ -7777,25 +7777,25 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0.003483416973530595</v>
+        <v>0.003536952896982332</v>
       </c>
       <c r="C88">
         <v>2</v>
       </c>
       <c r="D88">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E88">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F88">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H88">
-        <v>118</v>
+        <v>4</v>
       </c>
       <c r="J88" s="1" t="s">
         <v>307</v>
@@ -7827,7 +7827,7 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0.003483416973530595</v>
+        <v>0.003536952896982332</v>
       </c>
       <c r="C89">
         <v>2</v>
@@ -7845,7 +7845,7 @@
         <v>0</v>
       </c>
       <c r="H89">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="J89" s="1" t="s">
         <v>308</v>
@@ -7877,7 +7877,7 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0.003483416973530595</v>
+        <v>0.003536952896982332</v>
       </c>
       <c r="C90">
         <v>2</v>
@@ -7895,7 +7895,7 @@
         <v>0</v>
       </c>
       <c r="H90">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J90" s="1" t="s">
         <v>309</v>
@@ -7927,7 +7927,7 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>0.003483416973530595</v>
+        <v>0.003536952896982332</v>
       </c>
       <c r="C91">
         <v>2</v>
@@ -7945,7 +7945,7 @@
         <v>0</v>
       </c>
       <c r="H91">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="J91" s="1" t="s">
         <v>310</v>
@@ -7977,7 +7977,7 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>0.003483416973530595</v>
+        <v>0.003536952896982332</v>
       </c>
       <c r="C92">
         <v>2</v>
@@ -7995,7 +7995,7 @@
         <v>0</v>
       </c>
       <c r="H92">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J92" s="1" t="s">
         <v>311</v>
@@ -8027,7 +8027,7 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>0.003483416973530595</v>
+        <v>0.003536952896982332</v>
       </c>
       <c r="C93">
         <v>2</v>
@@ -8045,7 +8045,7 @@
         <v>0</v>
       </c>
       <c r="H93">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="J93" s="1" t="s">
         <v>312</v>
@@ -8077,7 +8077,7 @@
         <v>99</v>
       </c>
       <c r="B94">
-        <v>0.003483416973530595</v>
+        <v>0.003536952896982332</v>
       </c>
       <c r="C94">
         <v>2</v>
@@ -8095,7 +8095,7 @@
         <v>0</v>
       </c>
       <c r="H94">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J94" s="1" t="s">
         <v>313</v>
@@ -8127,28 +8127,28 @@
         <v>100</v>
       </c>
       <c r="B95">
-        <v>0.003483416973530595</v>
+        <v>0.003536952896982332</v>
       </c>
       <c r="C95">
         <v>2</v>
       </c>
       <c r="D95">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E95">
-        <v>0</v>
+        <v>0.82</v>
       </c>
       <c r="F95">
-        <v>1</v>
+        <v>0.18</v>
       </c>
       <c r="G95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H95">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K95">
         <v>0.001918897331706218</v>
@@ -8177,28 +8177,28 @@
         <v>101</v>
       </c>
       <c r="B96">
-        <v>0.003483416973530595</v>
+        <v>0.003536952896982332</v>
       </c>
       <c r="C96">
         <v>2</v>
       </c>
       <c r="D96">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>0.78</v>
       </c>
       <c r="F96">
-        <v>1</v>
+        <v>0.22</v>
       </c>
       <c r="G96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H96">
-        <v>4</v>
+        <v>351</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K96">
         <v>0.001918897331706218</v>
@@ -8227,28 +8227,28 @@
         <v>102</v>
       </c>
       <c r="B97">
-        <v>0.003483416973530595</v>
+        <v>0.003536952896982332</v>
       </c>
       <c r="C97">
         <v>2</v>
       </c>
       <c r="D97">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E97">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="F97">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="G97" t="b">
         <v>1</v>
       </c>
       <c r="H97">
-        <v>88</v>
+        <v>15</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K97">
         <v>0.001918897331706218</v>
@@ -8277,25 +8277,25 @@
         <v>103</v>
       </c>
       <c r="B98">
-        <v>0.003483416973530595</v>
+        <v>0.003536952896982332</v>
       </c>
       <c r="C98">
         <v>2</v>
       </c>
       <c r="D98">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="E98">
-        <v>0.78</v>
+        <v>0.93</v>
       </c>
       <c r="F98">
-        <v>0.22</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G98" t="b">
         <v>1</v>
       </c>
       <c r="H98">
-        <v>351</v>
+        <v>4</v>
       </c>
       <c r="J98" s="1" t="s">
         <v>314</v>
@@ -8327,28 +8327,28 @@
         <v>104</v>
       </c>
       <c r="B99">
-        <v>0.003483416973530595</v>
+        <v>0.003536952896982332</v>
       </c>
       <c r="C99">
         <v>2</v>
       </c>
       <c r="D99">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E99">
-        <v>0.83</v>
+        <v>0.5</v>
       </c>
       <c r="F99">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="G99" t="b">
         <v>1</v>
       </c>
       <c r="H99">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K99">
         <v>0.001918897331706218</v>
@@ -8377,28 +8377,28 @@
         <v>105</v>
       </c>
       <c r="B100">
-        <v>0.003483416973530595</v>
+        <v>0.003536952896982332</v>
       </c>
       <c r="C100">
         <v>2</v>
       </c>
       <c r="D100">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E100">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F100">
-        <v>0.06999999999999995</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G100" t="b">
         <v>1</v>
       </c>
       <c r="H100">
-        <v>4</v>
+        <v>123</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K100">
         <v>0.001918897331706218</v>
@@ -8427,28 +8427,28 @@
         <v>106</v>
       </c>
       <c r="B101">
-        <v>0.003483416973530595</v>
+        <v>0.003536952896982332</v>
       </c>
       <c r="C101">
         <v>2</v>
       </c>
       <c r="D101">
-        <v>4</v>
+        <v>76</v>
       </c>
       <c r="E101">
-        <v>0.5</v>
+        <v>0.97</v>
       </c>
       <c r="F101">
-        <v>0.5</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G101" t="b">
         <v>1</v>
       </c>
       <c r="H101">
-        <v>29</v>
+        <v>340</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K101">
         <v>0.001829596818385069</v>
@@ -8477,25 +8477,25 @@
         <v>107</v>
       </c>
       <c r="B102">
-        <v>0.003483416973530595</v>
+        <v>0.003536952896982332</v>
       </c>
       <c r="C102">
         <v>2</v>
       </c>
       <c r="D102">
-        <v>36</v>
+        <v>116</v>
       </c>
       <c r="E102">
-        <v>0.9399999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="F102">
-        <v>0.06000000000000005</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G102" t="b">
         <v>1</v>
       </c>
       <c r="H102">
-        <v>123</v>
+        <v>44</v>
       </c>
       <c r="J102" s="1" t="s">
         <v>315</v>
@@ -8527,25 +8527,25 @@
         <v>108</v>
       </c>
       <c r="B103">
-        <v>0.003483416973530595</v>
+        <v>0.003536952896982332</v>
       </c>
       <c r="C103">
         <v>2</v>
       </c>
       <c r="D103">
-        <v>76</v>
+        <v>5</v>
       </c>
       <c r="E103">
-        <v>0.97</v>
+        <v>0.6</v>
       </c>
       <c r="F103">
-        <v>0.03000000000000003</v>
+        <v>0.4</v>
       </c>
       <c r="G103" t="b">
         <v>1</v>
       </c>
       <c r="H103">
-        <v>340</v>
+        <v>51</v>
       </c>
       <c r="J103" s="1" t="s">
         <v>316</v>
@@ -8577,28 +8577,28 @@
         <v>109</v>
       </c>
       <c r="B104">
-        <v>0.003483416973530595</v>
+        <v>0.003536952896982332</v>
       </c>
       <c r="C104">
         <v>2</v>
       </c>
       <c r="D104">
-        <v>116</v>
+        <v>23</v>
       </c>
       <c r="E104">
-        <v>0.98</v>
+        <v>0.91</v>
       </c>
       <c r="F104">
-        <v>0.02000000000000002</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G104" t="b">
         <v>1</v>
       </c>
       <c r="H104">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K104">
         <v>0.001829596818385069</v>
@@ -8627,28 +8627,28 @@
         <v>110</v>
       </c>
       <c r="B105">
-        <v>0.003483416973530595</v>
+        <v>0.003536952896982332</v>
       </c>
       <c r="C105">
         <v>2</v>
       </c>
       <c r="D105">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E105">
-        <v>0.6</v>
+        <v>0.78</v>
       </c>
       <c r="F105">
-        <v>0.4</v>
+        <v>0.22</v>
       </c>
       <c r="G105" t="b">
         <v>1</v>
       </c>
       <c r="H105">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K105">
         <v>0.001829596818385069</v>
@@ -8677,25 +8677,25 @@
         <v>111</v>
       </c>
       <c r="B106">
-        <v>0.003483416973530595</v>
+        <v>0.003536952896982332</v>
       </c>
       <c r="C106">
         <v>2</v>
       </c>
       <c r="D106">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E106">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="F106">
-        <v>0.08999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G106" t="b">
         <v>1</v>
       </c>
       <c r="H106">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="J106" s="1" t="s">
         <v>317</v>
@@ -8727,28 +8727,28 @@
         <v>112</v>
       </c>
       <c r="B107">
-        <v>0.003483416973530595</v>
+        <v>0.003536952896982332</v>
       </c>
       <c r="C107">
         <v>2</v>
       </c>
       <c r="D107">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E107">
-        <v>0.78</v>
+        <v>0.67</v>
       </c>
       <c r="F107">
-        <v>0.22</v>
+        <v>0.33</v>
       </c>
       <c r="G107" t="b">
         <v>1</v>
       </c>
       <c r="H107">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K107">
         <v>0.001829596818385069</v>
@@ -8777,25 +8777,25 @@
         <v>113</v>
       </c>
       <c r="B108">
-        <v>0.003483416973530595</v>
+        <v>0.003536952896982332</v>
       </c>
       <c r="C108">
         <v>2</v>
       </c>
       <c r="D108">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="E108">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="F108">
-        <v>0.07999999999999996</v>
+        <v>1</v>
       </c>
       <c r="G108" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H108">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="J108" s="1" t="s">
         <v>318</v>
@@ -8827,25 +8827,25 @@
         <v>114</v>
       </c>
       <c r="B109">
-        <v>0.003483416973530595</v>
+        <v>0.003536952896982332</v>
       </c>
       <c r="C109">
         <v>2</v>
       </c>
       <c r="D109">
-        <v>6</v>
+        <v>96</v>
       </c>
       <c r="E109">
-        <v>0.67</v>
+        <v>0.98</v>
       </c>
       <c r="F109">
-        <v>0.33</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G109" t="b">
         <v>1</v>
       </c>
       <c r="H109">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="J109" s="1" t="s">
         <v>319</v>
@@ -8877,25 +8877,25 @@
         <v>115</v>
       </c>
       <c r="B110">
-        <v>0.003483416973530595</v>
+        <v>0.003536952896982332</v>
       </c>
       <c r="C110">
         <v>2</v>
       </c>
       <c r="D110">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E110">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="F110">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="G110" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H110">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="J110" s="1" t="s">
         <v>320</v>
@@ -8927,25 +8927,25 @@
         <v>116</v>
       </c>
       <c r="B111">
-        <v>0.003483416973530595</v>
+        <v>0.003536952896982332</v>
       </c>
       <c r="C111">
         <v>2</v>
       </c>
       <c r="D111">
-        <v>96</v>
+        <v>29</v>
       </c>
       <c r="E111">
-        <v>0.98</v>
+        <v>0.93</v>
       </c>
       <c r="F111">
-        <v>0.02000000000000002</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G111" t="b">
         <v>1</v>
       </c>
       <c r="H111">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J111" s="1" t="s">
         <v>321</v>
@@ -8977,25 +8977,25 @@
         <v>117</v>
       </c>
       <c r="B112">
-        <v>0.003483416973530595</v>
+        <v>0.003536952896982332</v>
       </c>
       <c r="C112">
         <v>2</v>
       </c>
       <c r="D112">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E112">
-        <v>0.83</v>
+        <v>0.87</v>
       </c>
       <c r="F112">
-        <v>0.17</v>
+        <v>0.13</v>
       </c>
       <c r="G112" t="b">
         <v>1</v>
       </c>
       <c r="H112">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="J112" s="1" t="s">
         <v>322</v>
@@ -9027,25 +9027,25 @@
         <v>118</v>
       </c>
       <c r="B113">
-        <v>0.003483416973530595</v>
+        <v>0.003536952896982332</v>
       </c>
       <c r="C113">
         <v>2</v>
       </c>
       <c r="D113">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="E113">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="F113">
-        <v>0.06999999999999995</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G113" t="b">
         <v>1</v>
       </c>
       <c r="H113">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J113" s="1" t="s">
         <v>323</v>
@@ -9077,25 +9077,25 @@
         <v>119</v>
       </c>
       <c r="B114">
-        <v>0.003483416973530595</v>
+        <v>0.003536952896982332</v>
       </c>
       <c r="C114">
         <v>2</v>
       </c>
       <c r="D114">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E114">
-        <v>0.87</v>
+        <v>0</v>
       </c>
       <c r="F114">
-        <v>0.13</v>
+        <v>1</v>
       </c>
       <c r="G114" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H114">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="J114" s="1" t="s">
         <v>324</v>
@@ -9127,25 +9127,25 @@
         <v>120</v>
       </c>
       <c r="B115">
-        <v>0.003483416973530595</v>
+        <v>0.003536952896982332</v>
       </c>
       <c r="C115">
         <v>2</v>
       </c>
       <c r="D115">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="E115">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="F115">
-        <v>0.03000000000000003</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G115" t="b">
         <v>1</v>
       </c>
       <c r="H115">
-        <v>16</v>
+        <v>283</v>
       </c>
       <c r="J115" s="1" t="s">
         <v>325</v>
@@ -9177,7 +9177,7 @@
         <v>121</v>
       </c>
       <c r="B116">
-        <v>0.003483416973530595</v>
+        <v>0.003536952896982332</v>
       </c>
       <c r="C116">
         <v>2</v>
@@ -9195,7 +9195,7 @@
         <v>0</v>
       </c>
       <c r="H116">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="J116" s="1" t="s">
         <v>326</v>
@@ -9227,25 +9227,25 @@
         <v>122</v>
       </c>
       <c r="B117">
-        <v>0.003483416973530595</v>
+        <v>0.003536952896982332</v>
       </c>
       <c r="C117">
         <v>2</v>
       </c>
       <c r="D117">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="E117">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F117">
-        <v>0.05000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G117" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H117">
-        <v>283</v>
+        <v>14</v>
       </c>
       <c r="J117" s="1" t="s">
         <v>327</v>
@@ -9277,28 +9277,28 @@
         <v>123</v>
       </c>
       <c r="B118">
-        <v>0.003483416973530595</v>
+        <v>0.003536952896982332</v>
       </c>
       <c r="C118">
         <v>2</v>
       </c>
       <c r="D118">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E118">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="F118">
-        <v>1</v>
+        <v>0.29</v>
       </c>
       <c r="G118" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H118">
-        <v>17</v>
+        <v>94</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K118">
         <v>0.001735707943768274</v>
@@ -9327,25 +9327,25 @@
         <v>124</v>
       </c>
       <c r="B119">
-        <v>0.003483416973530595</v>
+        <v>0.003536952896982332</v>
       </c>
       <c r="C119">
         <v>2</v>
       </c>
       <c r="D119">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E119">
-        <v>0</v>
+        <v>0.82</v>
       </c>
       <c r="F119">
-        <v>1</v>
+        <v>0.18</v>
       </c>
       <c r="G119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H119">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="J119" s="1" t="s">
         <v>328</v>
@@ -9377,25 +9377,25 @@
         <v>125</v>
       </c>
       <c r="B120">
-        <v>0.003483416973530595</v>
+        <v>0.003536952896982332</v>
       </c>
       <c r="C120">
         <v>2</v>
       </c>
       <c r="D120">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E120">
-        <v>0.71</v>
+        <v>0</v>
       </c>
       <c r="F120">
-        <v>0.29</v>
+        <v>1</v>
       </c>
       <c r="G120" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H120">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="J120" s="1" t="s">
         <v>329</v>
@@ -9427,25 +9427,25 @@
         <v>126</v>
       </c>
       <c r="B121">
-        <v>0.003483416973530595</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C121">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D121">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E121">
-        <v>0.82</v>
+        <v>0</v>
       </c>
       <c r="F121">
-        <v>0.18</v>
+        <v>1</v>
       </c>
       <c r="G121" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H121">
-        <v>68</v>
+        <v>372</v>
       </c>
       <c r="J121" s="1" t="s">
         <v>330</v>
@@ -9477,13 +9477,13 @@
         <v>127</v>
       </c>
       <c r="B122">
-        <v>0.003483416973530595</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C122">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D122">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E122">
         <v>0</v>
@@ -9495,7 +9495,7 @@
         <v>0</v>
       </c>
       <c r="H122">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J122" s="1" t="s">
         <v>331</v>
@@ -9527,7 +9527,7 @@
         <v>128</v>
       </c>
       <c r="B123">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -9545,7 +9545,7 @@
         <v>0</v>
       </c>
       <c r="H123">
-        <v>372</v>
+        <v>13</v>
       </c>
       <c r="J123" s="1" t="s">
         <v>332</v>
@@ -9577,7 +9577,7 @@
         <v>129</v>
       </c>
       <c r="B124">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -9595,10 +9595,10 @@
         <v>0</v>
       </c>
       <c r="H124">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="J124" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K124">
         <v>0.001735707943768274</v>
@@ -9627,7 +9627,7 @@
         <v>130</v>
       </c>
       <c r="B125">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -9645,7 +9645,7 @@
         <v>0</v>
       </c>
       <c r="H125">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J125" s="1" t="s">
         <v>333</v>
@@ -9677,7 +9677,7 @@
         <v>131</v>
       </c>
       <c r="B126">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -9695,10 +9695,10 @@
         <v>0</v>
       </c>
       <c r="H126">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="J126" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K126">
         <v>0.001636441142930541</v>
@@ -9727,7 +9727,7 @@
         <v>132</v>
       </c>
       <c r="B127">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -9745,10 +9745,10 @@
         <v>0</v>
       </c>
       <c r="H127">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J127" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K127">
         <v>0.001636441142930541</v>
@@ -9777,7 +9777,7 @@
         <v>133</v>
       </c>
       <c r="B128">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C128">
         <v>1</v>
@@ -9795,7 +9795,7 @@
         <v>0</v>
       </c>
       <c r="H128">
-        <v>5</v>
+        <v>188</v>
       </c>
       <c r="J128" s="1" t="s">
         <v>334</v>
@@ -9827,7 +9827,7 @@
         <v>134</v>
       </c>
       <c r="B129">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C129">
         <v>1</v>
@@ -9845,7 +9845,7 @@
         <v>0</v>
       </c>
       <c r="H129">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J129" s="1" t="s">
         <v>335</v>
@@ -9877,7 +9877,7 @@
         <v>135</v>
       </c>
       <c r="B130">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C130">
         <v>1</v>
@@ -9895,7 +9895,7 @@
         <v>0</v>
       </c>
       <c r="H130">
-        <v>188</v>
+        <v>5</v>
       </c>
       <c r="J130" s="1" t="s">
         <v>336</v>
@@ -9927,7 +9927,7 @@
         <v>136</v>
       </c>
       <c r="B131">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C131">
         <v>1</v>
@@ -9948,7 +9948,7 @@
         <v>5</v>
       </c>
       <c r="J131" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K131">
         <v>0.001530750522616712</v>
@@ -9977,7 +9977,7 @@
         <v>137</v>
       </c>
       <c r="B132">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C132">
         <v>1</v>
@@ -9995,10 +9995,10 @@
         <v>0</v>
       </c>
       <c r="H132">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="J132" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K132">
         <v>0.001530750522616712</v>
@@ -10027,7 +10027,7 @@
         <v>138</v>
       </c>
       <c r="B133">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C133">
         <v>1</v>
@@ -10048,7 +10048,7 @@
         <v>5</v>
       </c>
       <c r="J133" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K133">
         <v>0.001530750522616712</v>
@@ -10077,7 +10077,7 @@
         <v>139</v>
       </c>
       <c r="B134">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C134">
         <v>1</v>
@@ -10095,7 +10095,7 @@
         <v>0</v>
       </c>
       <c r="H134">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="J134" s="1" t="s">
         <v>337</v>
@@ -10127,7 +10127,7 @@
         <v>140</v>
       </c>
       <c r="B135">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C135">
         <v>1</v>
@@ -10177,7 +10177,7 @@
         <v>141</v>
       </c>
       <c r="B136">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C136">
         <v>1</v>
@@ -10195,7 +10195,7 @@
         <v>0</v>
       </c>
       <c r="H136">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J136" s="1" t="s">
         <v>339</v>
@@ -10227,7 +10227,7 @@
         <v>142</v>
       </c>
       <c r="B137">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C137">
         <v>1</v>
@@ -10245,7 +10245,7 @@
         <v>0</v>
       </c>
       <c r="H137">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="J137" s="1" t="s">
         <v>340</v>
@@ -10277,7 +10277,7 @@
         <v>143</v>
       </c>
       <c r="B138">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C138">
         <v>1</v>
@@ -10295,10 +10295,10 @@
         <v>0</v>
       </c>
       <c r="H138">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="J138" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K138">
         <v>0.001530750522616712</v>
@@ -10327,7 +10327,7 @@
         <v>144</v>
       </c>
       <c r="B139">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C139">
         <v>1</v>
@@ -10345,10 +10345,10 @@
         <v>0</v>
       </c>
       <c r="H139">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="J139" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K139">
         <v>0.001530750522616712</v>
@@ -10377,7 +10377,7 @@
         <v>145</v>
       </c>
       <c r="B140">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C140">
         <v>1</v>
@@ -10395,7 +10395,7 @@
         <v>0</v>
       </c>
       <c r="H140">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="J140" s="1" t="s">
         <v>341</v>
@@ -10427,25 +10427,25 @@
         <v>146</v>
       </c>
       <c r="B141">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C141">
         <v>1</v>
       </c>
       <c r="D141">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E141">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F141">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G141" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H141">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J141" s="1" t="s">
         <v>342</v>
@@ -10477,7 +10477,7 @@
         <v>147</v>
       </c>
       <c r="B142">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C142">
         <v>1</v>
@@ -10495,7 +10495,7 @@
         <v>0</v>
       </c>
       <c r="H142">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="J142" s="1" t="s">
         <v>343</v>
@@ -10527,28 +10527,28 @@
         <v>148</v>
       </c>
       <c r="B143">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C143">
         <v>1</v>
       </c>
       <c r="D143">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E143">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F143">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G143" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H143">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J143" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K143">
         <v>0.001530750522616712</v>
@@ -10577,7 +10577,7 @@
         <v>149</v>
       </c>
       <c r="B144">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C144">
         <v>1</v>
@@ -10595,7 +10595,7 @@
         <v>0</v>
       </c>
       <c r="H144">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="J144" s="1" t="s">
         <v>344</v>
@@ -10627,25 +10627,25 @@
         <v>150</v>
       </c>
       <c r="B145">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C145">
         <v>1</v>
       </c>
       <c r="D145">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E145">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F145">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G145" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H145">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="J145" s="1" t="s">
         <v>345</v>
@@ -10677,7 +10677,7 @@
         <v>151</v>
       </c>
       <c r="B146">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C146">
         <v>1</v>
@@ -10695,7 +10695,7 @@
         <v>0</v>
       </c>
       <c r="H146">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J146" s="1" t="s">
         <v>346</v>
@@ -10727,7 +10727,7 @@
         <v>152</v>
       </c>
       <c r="B147">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C147">
         <v>1</v>
@@ -10745,7 +10745,7 @@
         <v>1</v>
       </c>
       <c r="H147">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J147" s="1" t="s">
         <v>347</v>
@@ -10777,25 +10777,25 @@
         <v>153</v>
       </c>
       <c r="B148">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C148">
         <v>1</v>
       </c>
       <c r="D148">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E148">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F148">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G148" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H148">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J148" s="1" t="s">
         <v>348</v>
@@ -10827,7 +10827,7 @@
         <v>154</v>
       </c>
       <c r="B149">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C149">
         <v>1</v>
@@ -10845,7 +10845,7 @@
         <v>1</v>
       </c>
       <c r="H149">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="J149" s="1" t="s">
         <v>349</v>
@@ -10877,25 +10877,25 @@
         <v>155</v>
       </c>
       <c r="B150">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C150">
         <v>1</v>
       </c>
       <c r="D150">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E150">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="F150">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="G150" t="b">
         <v>1</v>
       </c>
       <c r="H150">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J150" s="1" t="s">
         <v>350</v>
@@ -10927,25 +10927,25 @@
         <v>156</v>
       </c>
       <c r="B151">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C151">
         <v>1</v>
       </c>
       <c r="D151">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E151">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F151">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G151" t="b">
         <v>1</v>
       </c>
       <c r="H151">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="J151" s="1" t="s">
         <v>351</v>
@@ -10977,25 +10977,25 @@
         <v>157</v>
       </c>
       <c r="B152">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C152">
         <v>1</v>
       </c>
       <c r="D152">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E152">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F152">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G152" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H152">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="J152" s="1" t="s">
         <v>352</v>
@@ -11027,28 +11027,28 @@
         <v>158</v>
       </c>
       <c r="B153">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C153">
         <v>1</v>
       </c>
       <c r="D153">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E153">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F153">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G153" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H153">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J153" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K153">
         <v>0.001417199601575889</v>
@@ -11077,25 +11077,25 @@
         <v>159</v>
       </c>
       <c r="B154">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C154">
         <v>1</v>
       </c>
       <c r="D154">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E154">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F154">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G154" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H154">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="J154" s="1" t="s">
         <v>353</v>
@@ -11127,7 +11127,7 @@
         <v>160</v>
       </c>
       <c r="B155">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C155">
         <v>1</v>
@@ -11145,7 +11145,7 @@
         <v>0</v>
       </c>
       <c r="H155">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J155" s="1" t="s">
         <v>354</v>
@@ -11177,7 +11177,7 @@
         <v>161</v>
       </c>
       <c r="B156">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C156">
         <v>1</v>
@@ -11195,7 +11195,7 @@
         <v>1</v>
       </c>
       <c r="H156">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="J156" s="1" t="s">
         <v>355</v>
@@ -11227,25 +11227,25 @@
         <v>162</v>
       </c>
       <c r="B157">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C157">
         <v>1</v>
       </c>
       <c r="D157">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E157">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F157">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G157" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H157">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="J157" s="1" t="s">
         <v>356</v>
@@ -11277,25 +11277,25 @@
         <v>163</v>
       </c>
       <c r="B158">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C158">
         <v>1</v>
       </c>
       <c r="D158">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E158">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F158">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G158" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H158">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J158" s="1" t="s">
         <v>357</v>
@@ -11327,7 +11327,7 @@
         <v>164</v>
       </c>
       <c r="B159">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C159">
         <v>1</v>
@@ -11345,7 +11345,7 @@
         <v>1</v>
       </c>
       <c r="H159">
-        <v>23</v>
+        <v>103</v>
       </c>
       <c r="J159" s="1" t="s">
         <v>358</v>
@@ -11377,25 +11377,25 @@
         <v>165</v>
       </c>
       <c r="B160">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C160">
         <v>1</v>
       </c>
       <c r="D160">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E160">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="F160">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="G160" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H160">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="J160" s="1" t="s">
         <v>359</v>
@@ -11427,25 +11427,25 @@
         <v>166</v>
       </c>
       <c r="B161">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C161">
         <v>1</v>
       </c>
       <c r="D161">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E161">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F161">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G161" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H161">
-        <v>103</v>
+        <v>5</v>
       </c>
       <c r="J161" s="1" t="s">
         <v>360</v>
@@ -11477,25 +11477,25 @@
         <v>167</v>
       </c>
       <c r="B162">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C162">
         <v>1</v>
       </c>
       <c r="D162">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="E162">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="F162">
-        <v>0.17</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G162" t="b">
         <v>1</v>
       </c>
       <c r="H162">
-        <v>47</v>
+        <v>119</v>
       </c>
       <c r="J162" s="1" t="s">
         <v>361</v>
@@ -11527,25 +11527,25 @@
         <v>168</v>
       </c>
       <c r="B163">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C163">
         <v>1</v>
       </c>
       <c r="D163">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E163">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F163">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G163" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H163">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="J163" s="1" t="s">
         <v>362</v>
@@ -11577,25 +11577,25 @@
         <v>169</v>
       </c>
       <c r="B164">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C164">
         <v>1</v>
       </c>
       <c r="D164">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="E164">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F164">
-        <v>0.05000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G164" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H164">
-        <v>119</v>
+        <v>32</v>
       </c>
       <c r="J164" s="1" t="s">
         <v>363</v>
@@ -11627,25 +11627,25 @@
         <v>170</v>
       </c>
       <c r="B165">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C165">
         <v>1</v>
       </c>
       <c r="D165">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E165">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="F165">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G165" t="b">
         <v>1</v>
       </c>
       <c r="H165">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="J165" s="1" t="s">
         <v>364</v>
@@ -11677,28 +11677,28 @@
         <v>171</v>
       </c>
       <c r="B166">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C166">
         <v>1</v>
       </c>
       <c r="D166">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="E166">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="F166">
-        <v>1</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G166" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H166">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="J166" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K166">
         <v>0.001417199601575889</v>
@@ -11727,25 +11727,25 @@
         <v>172</v>
       </c>
       <c r="B167">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C167">
         <v>1</v>
       </c>
       <c r="D167">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E167">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F167">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G167" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H167">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="J167" s="1" t="s">
         <v>365</v>
@@ -11777,22 +11777,22 @@
         <v>173</v>
       </c>
       <c r="B168">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C168">
         <v>1</v>
       </c>
       <c r="D168">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="E168">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="F168">
-        <v>0.02000000000000002</v>
+        <v>1</v>
       </c>
       <c r="G168" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H168">
         <v>14</v>
@@ -11827,28 +11827,28 @@
         <v>174</v>
       </c>
       <c r="B169">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C169">
         <v>1</v>
       </c>
       <c r="D169">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E169">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F169">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G169" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H169">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="J169" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K169">
         <v>0.001293720317117415</v>
@@ -11877,25 +11877,25 @@
         <v>175</v>
       </c>
       <c r="B170">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C170">
         <v>1</v>
       </c>
       <c r="D170">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E170">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F170">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G170" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H170">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="J170" s="1" t="s">
         <v>367</v>
@@ -11927,25 +11927,25 @@
         <v>176</v>
       </c>
       <c r="B171">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C171">
         <v>1</v>
       </c>
       <c r="D171">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E171">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="F171">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="G171" t="b">
         <v>1</v>
       </c>
       <c r="H171">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="J171" s="1" t="s">
         <v>368</v>
@@ -11977,25 +11977,25 @@
         <v>177</v>
       </c>
       <c r="B172">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C172">
         <v>1</v>
       </c>
       <c r="D172">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E172">
-        <v>0.67</v>
+        <v>0.8</v>
       </c>
       <c r="F172">
-        <v>0.33</v>
+        <v>0.2</v>
       </c>
       <c r="G172" t="b">
         <v>1</v>
       </c>
       <c r="H172">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="J172" s="1" t="s">
         <v>369</v>
@@ -12027,28 +12027,28 @@
         <v>178</v>
       </c>
       <c r="B173">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C173">
         <v>1</v>
       </c>
       <c r="D173">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E173">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F173">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G173" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H173">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="J173" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K173">
         <v>0.001293720317117415</v>
@@ -12077,28 +12077,28 @@
         <v>179</v>
       </c>
       <c r="B174">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C174">
         <v>1</v>
       </c>
       <c r="D174">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E174">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F174">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G174" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H174">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="J174" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K174">
         <v>0.001293720317117415</v>
@@ -12127,7 +12127,7 @@
         <v>180</v>
       </c>
       <c r="B175">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C175">
         <v>1</v>
@@ -12145,10 +12145,10 @@
         <v>0</v>
       </c>
       <c r="H175">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J175" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K175">
         <v>0.001293720317117415</v>
@@ -12177,7 +12177,7 @@
         <v>181</v>
       </c>
       <c r="B176">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C176">
         <v>1</v>
@@ -12195,7 +12195,7 @@
         <v>0</v>
       </c>
       <c r="H176">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="J176" s="1" t="s">
         <v>370</v>
@@ -12227,25 +12227,25 @@
         <v>182</v>
       </c>
       <c r="B177">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C177">
         <v>1</v>
       </c>
       <c r="D177">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E177">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F177">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G177" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H177">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="J177" s="1" t="s">
         <v>371</v>
@@ -12277,25 +12277,25 @@
         <v>183</v>
       </c>
       <c r="B178">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C178">
         <v>1</v>
       </c>
       <c r="D178">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E178">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F178">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G178" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H178">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J178" s="1" t="s">
         <v>372</v>
@@ -12327,25 +12327,25 @@
         <v>184</v>
       </c>
       <c r="B179">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C179">
         <v>1</v>
       </c>
       <c r="D179">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E179">
-        <v>0.8</v>
+        <v>0.91</v>
       </c>
       <c r="F179">
-        <v>0.2</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G179" t="b">
         <v>1</v>
       </c>
       <c r="H179">
-        <v>48</v>
+        <v>101</v>
       </c>
       <c r="J179" s="1" t="s">
         <v>373</v>
@@ -12377,25 +12377,25 @@
         <v>185</v>
       </c>
       <c r="B180">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C180">
         <v>1</v>
       </c>
       <c r="D180">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E180">
-        <v>0.5</v>
+        <v>0.88</v>
       </c>
       <c r="F180">
-        <v>0.5</v>
+        <v>0.12</v>
       </c>
       <c r="G180" t="b">
         <v>1</v>
       </c>
       <c r="H180">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J180" s="1" t="s">
         <v>374</v>
@@ -12427,25 +12427,25 @@
         <v>186</v>
       </c>
       <c r="B181">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C181">
         <v>1</v>
       </c>
       <c r="D181">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E181">
-        <v>0.91</v>
+        <v>0</v>
       </c>
       <c r="F181">
-        <v>0.08999999999999997</v>
+        <v>1</v>
       </c>
       <c r="G181" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H181">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="J181" s="1" t="s">
         <v>375</v>
@@ -12477,25 +12477,25 @@
         <v>187</v>
       </c>
       <c r="B182">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C182">
         <v>1</v>
       </c>
       <c r="D182">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E182">
-        <v>0.88</v>
+        <v>0.67</v>
       </c>
       <c r="F182">
-        <v>0.12</v>
+        <v>0.33</v>
       </c>
       <c r="G182" t="b">
         <v>1</v>
       </c>
       <c r="H182">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="J182" s="1" t="s">
         <v>376</v>
@@ -12527,7 +12527,7 @@
         <v>188</v>
       </c>
       <c r="B183">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C183">
         <v>1</v>
@@ -12545,7 +12545,7 @@
         <v>0</v>
       </c>
       <c r="H183">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="J183" s="1" t="s">
         <v>377</v>
@@ -12577,28 +12577,28 @@
         <v>189</v>
       </c>
       <c r="B184">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C184">
         <v>1</v>
       </c>
       <c r="D184">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="E184">
-        <v>0.67</v>
+        <v>0.97</v>
       </c>
       <c r="F184">
-        <v>0.33</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G184" t="b">
         <v>1</v>
       </c>
       <c r="H184">
-        <v>13</v>
+        <v>201</v>
       </c>
       <c r="J184" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K184">
         <v>0.001293720317117415</v>
@@ -12627,7 +12627,7 @@
         <v>190</v>
       </c>
       <c r="B185">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C185">
         <v>1</v>
@@ -12645,7 +12645,7 @@
         <v>0</v>
       </c>
       <c r="H185">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="J185" s="1" t="s">
         <v>378</v>
@@ -12677,25 +12677,25 @@
         <v>191</v>
       </c>
       <c r="B186">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C186">
         <v>1</v>
       </c>
       <c r="D186">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="E186">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F186">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G186" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H186">
-        <v>201</v>
+        <v>16</v>
       </c>
       <c r="J186" s="1" t="s">
         <v>379</v>
@@ -12727,25 +12727,25 @@
         <v>192</v>
       </c>
       <c r="B187">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C187">
         <v>1</v>
       </c>
       <c r="D187">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E187">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="F187">
-        <v>1</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G187" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H187">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="J187" s="1" t="s">
         <v>380</v>
@@ -12777,7 +12777,7 @@
         <v>193</v>
       </c>
       <c r="B188">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C188">
         <v>1</v>
@@ -12795,10 +12795,10 @@
         <v>0</v>
       </c>
       <c r="H188">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J188" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K188">
         <v>0.001293720317117415</v>
@@ -12827,28 +12827,28 @@
         <v>194</v>
       </c>
       <c r="B189">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C189">
         <v>1</v>
       </c>
       <c r="D189">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E189">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F189">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G189" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H189">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="J189" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K189">
         <v>0.001293720317117415</v>
@@ -12877,25 +12877,25 @@
         <v>195</v>
       </c>
       <c r="B190">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C190">
         <v>1</v>
       </c>
       <c r="D190">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="E190">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="F190">
-        <v>1</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G190" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H190">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="J190" s="1" t="s">
         <v>381</v>
@@ -12927,7 +12927,7 @@
         <v>196</v>
       </c>
       <c r="B191">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C191">
         <v>1</v>
@@ -12945,7 +12945,7 @@
         <v>0</v>
       </c>
       <c r="H191">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J191" s="1" t="s">
         <v>382</v>
@@ -12977,25 +12977,25 @@
         <v>197</v>
       </c>
       <c r="B192">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C192">
         <v>1</v>
       </c>
       <c r="D192">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="E192">
-        <v>0.96</v>
+        <v>0.8</v>
       </c>
       <c r="F192">
-        <v>0.04000000000000004</v>
+        <v>0.2</v>
       </c>
       <c r="G192" t="b">
         <v>1</v>
       </c>
       <c r="H192">
-        <v>104</v>
+        <v>17</v>
       </c>
       <c r="J192" s="1" t="s">
         <v>383</v>
@@ -13027,25 +13027,25 @@
         <v>198</v>
       </c>
       <c r="B193">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C193">
         <v>1</v>
       </c>
       <c r="D193">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E193">
-        <v>0</v>
+        <v>0.88</v>
       </c>
       <c r="F193">
-        <v>1</v>
+        <v>0.12</v>
       </c>
       <c r="G193" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H193">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J193" s="1" t="s">
         <v>384</v>
@@ -13077,25 +13077,25 @@
         <v>199</v>
       </c>
       <c r="B194">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C194">
         <v>1</v>
       </c>
       <c r="D194">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E194">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="F194">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="G194" t="b">
         <v>1</v>
       </c>
       <c r="H194">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J194" s="1" t="s">
         <v>385</v>
@@ -13127,25 +13127,25 @@
         <v>200</v>
       </c>
       <c r="B195">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C195">
         <v>1</v>
       </c>
       <c r="D195">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E195">
-        <v>0.88</v>
+        <v>0.75</v>
       </c>
       <c r="F195">
-        <v>0.12</v>
+        <v>0.25</v>
       </c>
       <c r="G195" t="b">
         <v>1</v>
       </c>
       <c r="H195">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="J195" s="1" t="s">
         <v>386</v>
@@ -13177,25 +13177,25 @@
         <v>201</v>
       </c>
       <c r="B196">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C196">
         <v>1</v>
       </c>
       <c r="D196">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E196">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="F196">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="G196" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H196">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J196" s="1" t="s">
         <v>387</v>
@@ -13227,25 +13227,25 @@
         <v>202</v>
       </c>
       <c r="B197">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C197">
         <v>1</v>
       </c>
       <c r="D197">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E197">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="F197">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="G197" t="b">
         <v>1</v>
       </c>
       <c r="H197">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="J197" s="1" t="s">
         <v>388</v>
@@ -13277,25 +13277,25 @@
         <v>203</v>
       </c>
       <c r="B198">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C198">
         <v>1</v>
       </c>
       <c r="D198">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E198">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F198">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G198" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H198">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="J198" s="1" t="s">
         <v>389</v>
@@ -13327,25 +13327,25 @@
         <v>204</v>
       </c>
       <c r="B199">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C199">
         <v>1</v>
       </c>
       <c r="D199">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E199">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="F199">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="G199" t="b">
         <v>1</v>
       </c>
       <c r="H199">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="J199" s="1" t="s">
         <v>390</v>
@@ -13377,25 +13377,25 @@
         <v>205</v>
       </c>
       <c r="B200">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C200">
         <v>1</v>
       </c>
       <c r="D200">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E200">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="F200">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="G200" t="b">
         <v>1</v>
       </c>
       <c r="H200">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="J200" s="1" t="s">
         <v>391</v>
@@ -13427,22 +13427,22 @@
         <v>206</v>
       </c>
       <c r="B201">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C201">
         <v>1</v>
       </c>
       <c r="D201">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E201">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F201">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G201" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H201">
         <v>26</v>
@@ -13477,25 +13477,25 @@
         <v>207</v>
       </c>
       <c r="B202">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C202">
         <v>1</v>
       </c>
       <c r="D202">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E202">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="F202">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="G202" t="b">
         <v>1</v>
       </c>
       <c r="H202">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="J202" s="1" t="s">
         <v>393</v>
@@ -13527,25 +13527,25 @@
         <v>208</v>
       </c>
       <c r="B203">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C203">
         <v>1</v>
       </c>
       <c r="D203">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E203">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="F203">
-        <v>1</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G203" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H203">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J203" s="1" t="s">
         <v>394</v>
@@ -13577,25 +13577,25 @@
         <v>209</v>
       </c>
       <c r="B204">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C204">
         <v>1</v>
       </c>
       <c r="D204">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E204">
-        <v>0.67</v>
+        <v>0.8</v>
       </c>
       <c r="F204">
-        <v>0.33</v>
+        <v>0.2</v>
       </c>
       <c r="G204" t="b">
         <v>1</v>
       </c>
       <c r="H204">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="J204" s="1" t="s">
         <v>395</v>
@@ -13627,25 +13627,25 @@
         <v>210</v>
       </c>
       <c r="B205">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C205">
         <v>1</v>
       </c>
       <c r="D205">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="E205">
-        <v>0.92</v>
+        <v>0.99</v>
       </c>
       <c r="F205">
-        <v>0.07999999999999996</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G205" t="b">
         <v>1</v>
       </c>
       <c r="H205">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J205" s="1" t="s">
         <v>396</v>
@@ -13677,7 +13677,7 @@
         <v>211</v>
       </c>
       <c r="B206">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C206">
         <v>1</v>
@@ -13695,7 +13695,7 @@
         <v>1</v>
       </c>
       <c r="H206">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="J206" s="1" t="s">
         <v>397</v>
@@ -13727,25 +13727,25 @@
         <v>212</v>
       </c>
       <c r="B207">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C207">
         <v>1</v>
       </c>
       <c r="D207">
-        <v>104</v>
+        <v>12</v>
       </c>
       <c r="E207">
-        <v>0.99</v>
+        <v>0.92</v>
       </c>
       <c r="F207">
-        <v>0.01000000000000001</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G207" t="b">
         <v>1</v>
       </c>
       <c r="H207">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="J207" s="1" t="s">
         <v>398</v>
@@ -13777,28 +13777,28 @@
         <v>213</v>
       </c>
       <c r="B208">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C208">
         <v>1</v>
       </c>
       <c r="D208">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E208">
-        <v>0.8</v>
+        <v>0.93</v>
       </c>
       <c r="F208">
-        <v>0.2</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G208" t="b">
         <v>1</v>
       </c>
       <c r="H208">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="J208" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K208">
         <v>0.001157138629178849</v>
@@ -13827,25 +13827,25 @@
         <v>214</v>
       </c>
       <c r="B209">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C209">
         <v>1</v>
       </c>
       <c r="D209">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E209">
-        <v>0.92</v>
+        <v>0.67</v>
       </c>
       <c r="F209">
-        <v>0.07999999999999996</v>
+        <v>0.33</v>
       </c>
       <c r="G209" t="b">
         <v>1</v>
       </c>
       <c r="H209">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="J209" s="1" t="s">
         <v>399</v>
@@ -13877,25 +13877,25 @@
         <v>215</v>
       </c>
       <c r="B210">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C210">
         <v>1</v>
       </c>
       <c r="D210">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E210">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F210">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G210" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H210">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="J210" s="1" t="s">
         <v>400</v>
@@ -13927,25 +13927,25 @@
         <v>216</v>
       </c>
       <c r="B211">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C211">
         <v>1</v>
       </c>
       <c r="D211">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="E211">
-        <v>0.67</v>
+        <v>0.95</v>
       </c>
       <c r="F211">
-        <v>0.33</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G211" t="b">
         <v>1</v>
       </c>
       <c r="H211">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J211" s="1" t="s">
         <v>401</v>
@@ -13977,25 +13977,25 @@
         <v>217</v>
       </c>
       <c r="B212">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C212">
         <v>1</v>
       </c>
       <c r="D212">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E212">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F212">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G212" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H212">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="J212" s="1" t="s">
         <v>402</v>
@@ -14027,25 +14027,25 @@
         <v>218</v>
       </c>
       <c r="B213">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C213">
         <v>1</v>
       </c>
       <c r="D213">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="E213">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="F213">
-        <v>0.05000000000000004</v>
+        <v>0.25</v>
       </c>
       <c r="G213" t="b">
         <v>1</v>
       </c>
       <c r="H213">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J213" s="1" t="s">
         <v>403</v>
@@ -14077,28 +14077,28 @@
         <v>219</v>
       </c>
       <c r="B214">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C214">
         <v>1</v>
       </c>
       <c r="D214">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E214">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="F214">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="G214" t="b">
         <v>1</v>
       </c>
       <c r="H214">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="J214" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K214">
         <v>0.001157138629178849</v>
@@ -14127,7 +14127,7 @@
         <v>220</v>
       </c>
       <c r="B215">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C215">
         <v>1</v>
@@ -14145,7 +14145,7 @@
         <v>1</v>
       </c>
       <c r="H215">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="J215" s="1" t="s">
         <v>404</v>
@@ -14177,25 +14177,25 @@
         <v>221</v>
       </c>
       <c r="B216">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C216">
         <v>1</v>
       </c>
       <c r="D216">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E216">
-        <v>0.67</v>
+        <v>0.88</v>
       </c>
       <c r="F216">
-        <v>0.33</v>
+        <v>0.12</v>
       </c>
       <c r="G216" t="b">
         <v>1</v>
       </c>
       <c r="H216">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J216" s="1" t="s">
         <v>405</v>
@@ -14227,25 +14227,25 @@
         <v>222</v>
       </c>
       <c r="B217">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C217">
         <v>1</v>
       </c>
       <c r="D217">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E217">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F217">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G217" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H217">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="J217" s="1" t="s">
         <v>406</v>
@@ -14277,25 +14277,25 @@
         <v>223</v>
       </c>
       <c r="B218">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C218">
         <v>1</v>
       </c>
       <c r="D218">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E218">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="F218">
-        <v>0.12</v>
+        <v>1</v>
       </c>
       <c r="G218" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H218">
-        <v>88</v>
+        <v>27</v>
       </c>
       <c r="J218" s="1" t="s">
         <v>407</v>
@@ -14327,25 +14327,25 @@
         <v>224</v>
       </c>
       <c r="B219">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C219">
         <v>1</v>
       </c>
       <c r="D219">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="E219">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="F219">
-        <v>1</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G219" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H219">
-        <v>31</v>
+        <v>135</v>
       </c>
       <c r="J219" s="1" t="s">
         <v>408</v>
@@ -14377,25 +14377,25 @@
         <v>225</v>
       </c>
       <c r="B220">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C220">
         <v>1</v>
       </c>
       <c r="D220">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E220">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F220">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G220" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H220">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="J220" s="1" t="s">
         <v>409</v>
@@ -14427,25 +14427,25 @@
         <v>226</v>
       </c>
       <c r="B221">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C221">
         <v>1</v>
       </c>
       <c r="D221">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E221">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F221">
-        <v>0.04000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G221" t="b">
         <v>1</v>
       </c>
       <c r="H221">
-        <v>135</v>
+        <v>62</v>
       </c>
       <c r="J221" s="1" t="s">
         <v>410</v>
@@ -14477,25 +14477,25 @@
         <v>227</v>
       </c>
       <c r="B222">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C222">
         <v>1</v>
       </c>
       <c r="D222">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E222">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="F222">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G222" t="b">
         <v>1</v>
       </c>
       <c r="H222">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="J222" s="1" t="s">
         <v>411</v>
@@ -14527,25 +14527,25 @@
         <v>228</v>
       </c>
       <c r="B223">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C223">
         <v>1</v>
       </c>
       <c r="D223">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E223">
-        <v>0.9399999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="F223">
-        <v>0.06000000000000005</v>
+        <v>0.14</v>
       </c>
       <c r="G223" t="b">
         <v>1</v>
       </c>
       <c r="H223">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="J223" s="1" t="s">
         <v>412</v>
@@ -14577,25 +14577,25 @@
         <v>229</v>
       </c>
       <c r="B224">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C224">
         <v>1</v>
       </c>
       <c r="D224">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E224">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="F224">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="G224" t="b">
         <v>1</v>
       </c>
       <c r="H224">
-        <v>98</v>
+        <v>47</v>
       </c>
       <c r="J224" s="1" t="s">
         <v>413</v>
@@ -14627,25 +14627,25 @@
         <v>230</v>
       </c>
       <c r="B225">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C225">
         <v>1</v>
       </c>
       <c r="D225">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E225">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="F225">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="G225" t="b">
         <v>1</v>
       </c>
       <c r="H225">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="J225" s="1" t="s">
         <v>414</v>
@@ -14677,25 +14677,25 @@
         <v>231</v>
       </c>
       <c r="B226">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C226">
         <v>1</v>
       </c>
       <c r="D226">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E226">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F226">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G226" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H226">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="J226" s="1" t="s">
         <v>415</v>
@@ -14727,25 +14727,25 @@
         <v>232</v>
       </c>
       <c r="B227">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C227">
         <v>1</v>
       </c>
       <c r="D227">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E227">
-        <v>0.88</v>
+        <v>0.95</v>
       </c>
       <c r="F227">
-        <v>0.12</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G227" t="b">
         <v>1</v>
       </c>
       <c r="H227">
-        <v>50</v>
+        <v>165</v>
       </c>
       <c r="J227" s="1" t="s">
         <v>416</v>
@@ -14777,25 +14777,25 @@
         <v>233</v>
       </c>
       <c r="B228">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C228">
         <v>1</v>
       </c>
       <c r="D228">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E228">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F228">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G228" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H228">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>417</v>
@@ -14827,25 +14827,25 @@
         <v>234</v>
       </c>
       <c r="B229">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C229">
         <v>1</v>
       </c>
       <c r="D229">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E229">
-        <v>0.95</v>
+        <v>0.83</v>
       </c>
       <c r="F229">
-        <v>0.05000000000000004</v>
+        <v>0.17</v>
       </c>
       <c r="G229" t="b">
         <v>1</v>
       </c>
       <c r="H229">
-        <v>165</v>
+        <v>83</v>
       </c>
       <c r="J229" s="1" t="s">
         <v>418</v>
@@ -14877,25 +14877,25 @@
         <v>235</v>
       </c>
       <c r="B230">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C230">
         <v>1</v>
       </c>
       <c r="D230">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E230">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="F230">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="G230" t="b">
         <v>1</v>
       </c>
       <c r="H230">
-        <v>40</v>
+        <v>234</v>
       </c>
       <c r="J230" s="1" t="s">
         <v>419</v>
@@ -14927,25 +14927,25 @@
         <v>236</v>
       </c>
       <c r="B231">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C231">
         <v>1</v>
       </c>
       <c r="D231">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="E231">
-        <v>0.83</v>
+        <v>0.96</v>
       </c>
       <c r="F231">
-        <v>0.17</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G231" t="b">
         <v>1</v>
       </c>
       <c r="H231">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="J231" s="1" t="s">
         <v>420</v>
@@ -14977,25 +14977,25 @@
         <v>237</v>
       </c>
       <c r="B232">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C232">
         <v>1</v>
       </c>
       <c r="D232">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E232">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="F232">
-        <v>0.5</v>
+        <v>0.14</v>
       </c>
       <c r="G232" t="b">
         <v>1</v>
       </c>
       <c r="H232">
-        <v>234</v>
+        <v>164</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>421</v>
@@ -15027,13 +15027,13 @@
         <v>238</v>
       </c>
       <c r="B233">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C233">
         <v>1</v>
       </c>
       <c r="D233">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E233">
         <v>0.96</v>
@@ -15045,7 +15045,7 @@
         <v>1</v>
       </c>
       <c r="H233">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>422</v>
@@ -15077,25 +15077,25 @@
         <v>239</v>
       </c>
       <c r="B234">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C234">
         <v>1</v>
       </c>
       <c r="D234">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E234">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="F234">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="G234" t="b">
         <v>1</v>
       </c>
       <c r="H234">
-        <v>164</v>
+        <v>78</v>
       </c>
       <c r="J234" s="1" t="s">
         <v>423</v>
@@ -15127,25 +15127,25 @@
         <v>240</v>
       </c>
       <c r="B235">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C235">
         <v>1</v>
       </c>
       <c r="D235">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="E235">
-        <v>0.96</v>
+        <v>0.83</v>
       </c>
       <c r="F235">
-        <v>0.04000000000000004</v>
+        <v>0.17</v>
       </c>
       <c r="G235" t="b">
         <v>1</v>
       </c>
       <c r="H235">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="J235" s="1" t="s">
         <v>424</v>
@@ -15177,28 +15177,28 @@
         <v>241</v>
       </c>
       <c r="B236">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C236">
         <v>1</v>
       </c>
       <c r="D236">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E236">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="F236">
-        <v>0.25</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G236" t="b">
         <v>1</v>
       </c>
       <c r="H236">
-        <v>78</v>
+        <v>35</v>
       </c>
       <c r="J236" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K236">
         <v>0.001157138629178849</v>
@@ -15227,25 +15227,25 @@
         <v>242</v>
       </c>
       <c r="B237">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C237">
         <v>1</v>
       </c>
       <c r="D237">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="E237">
-        <v>0.83</v>
+        <v>0.98</v>
       </c>
       <c r="F237">
-        <v>0.17</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G237" t="b">
         <v>1</v>
       </c>
       <c r="H237">
-        <v>74</v>
+        <v>3</v>
       </c>
       <c r="J237" s="1" t="s">
         <v>425</v>
@@ -15277,28 +15277,28 @@
         <v>243</v>
       </c>
       <c r="B238">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C238">
         <v>1</v>
       </c>
       <c r="D238">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E238">
-        <v>0.92</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F238">
-        <v>0.07999999999999996</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G238" t="b">
         <v>1</v>
       </c>
       <c r="H238">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="J238" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K238">
         <v>0.001157138629178849</v>
@@ -15327,25 +15327,25 @@
         <v>244</v>
       </c>
       <c r="B239">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C239">
         <v>1</v>
       </c>
       <c r="D239">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="E239">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="F239">
-        <v>0.02000000000000002</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G239" t="b">
         <v>1</v>
       </c>
       <c r="H239">
-        <v>3</v>
+        <v>212</v>
       </c>
       <c r="J239" s="1" t="s">
         <v>426</v>
@@ -15377,28 +15377,28 @@
         <v>245</v>
       </c>
       <c r="B240">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C240">
         <v>1</v>
       </c>
       <c r="D240">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="E240">
-        <v>0.9399999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="F240">
-        <v>0.06000000000000005</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G240" t="b">
         <v>1</v>
       </c>
       <c r="H240">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="J240" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K240">
         <v>0.001157138629178849</v>
@@ -15427,25 +15427,25 @@
         <v>246</v>
       </c>
       <c r="B241">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C241">
         <v>1</v>
       </c>
       <c r="D241">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="E241">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="F241">
-        <v>0.04000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G241" t="b">
         <v>1</v>
       </c>
       <c r="H241">
-        <v>212</v>
+        <v>107</v>
       </c>
       <c r="J241" s="1" t="s">
         <v>427</v>
@@ -15477,28 +15477,28 @@
         <v>247</v>
       </c>
       <c r="B242">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C242">
         <v>1</v>
       </c>
       <c r="D242">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="E242">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="F242">
-        <v>0.02000000000000002</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G242" t="b">
         <v>1</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="J242" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K242">
         <v>0.001157138629178849</v>
@@ -15527,25 +15527,25 @@
         <v>248</v>
       </c>
       <c r="B243">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C243">
         <v>1</v>
       </c>
       <c r="D243">
-        <v>12</v>
+        <v>175</v>
       </c>
       <c r="E243">
-        <v>0.92</v>
+        <v>0.99</v>
       </c>
       <c r="F243">
-        <v>0.07999999999999996</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G243" t="b">
         <v>1</v>
       </c>
       <c r="H243">
-        <v>107</v>
+        <v>208</v>
       </c>
       <c r="J243" s="1" t="s">
         <v>428</v>
@@ -15577,28 +15577,28 @@
         <v>249</v>
       </c>
       <c r="B244">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C244">
         <v>1</v>
       </c>
       <c r="D244">
-        <v>94</v>
+        <v>18</v>
       </c>
       <c r="E244">
-        <v>0.99</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F244">
-        <v>0.01000000000000001</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G244" t="b">
         <v>1</v>
       </c>
       <c r="H244">
-        <v>48</v>
+        <v>129</v>
       </c>
       <c r="J244" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K244">
         <v>0.001157138629178849</v>
@@ -15627,25 +15627,25 @@
         <v>250</v>
       </c>
       <c r="B245">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C245">
         <v>1</v>
       </c>
       <c r="D245">
-        <v>175</v>
+        <v>1</v>
       </c>
       <c r="E245">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="F245">
-        <v>0.01000000000000001</v>
+        <v>1</v>
       </c>
       <c r="G245" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H245">
-        <v>208</v>
+        <v>7</v>
       </c>
       <c r="J245" s="1" t="s">
         <v>429</v>
@@ -15677,25 +15677,25 @@
         <v>251</v>
       </c>
       <c r="B246">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C246">
         <v>1</v>
       </c>
       <c r="D246">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="E246">
-        <v>0.9399999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="F246">
-        <v>0.06000000000000005</v>
+        <v>0.5</v>
       </c>
       <c r="G246" t="b">
         <v>1</v>
       </c>
       <c r="H246">
-        <v>129</v>
+        <v>27</v>
       </c>
       <c r="J246" s="1" t="s">
         <v>430</v>
@@ -15727,25 +15727,25 @@
         <v>252</v>
       </c>
       <c r="B247">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C247">
         <v>1</v>
       </c>
       <c r="D247">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E247">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="F247">
-        <v>1</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G247" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H247">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="J247" s="1" t="s">
         <v>431</v>
@@ -15777,28 +15777,28 @@
         <v>253</v>
       </c>
       <c r="B248">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C248">
         <v>1</v>
       </c>
       <c r="D248">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E248">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="F248">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="G248" t="b">
         <v>1</v>
       </c>
       <c r="H248">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="J248" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K248">
         <v>0.001157138629178849</v>
@@ -15827,28 +15827,28 @@
         <v>254</v>
       </c>
       <c r="B249">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C249">
         <v>1</v>
       </c>
       <c r="D249">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E249">
-        <v>0.92</v>
+        <v>0.5</v>
       </c>
       <c r="F249">
-        <v>0.07999999999999996</v>
+        <v>0.5</v>
       </c>
       <c r="G249" t="b">
         <v>1</v>
       </c>
       <c r="H249">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="J249" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K249">
         <v>0.001157138629178849</v>
@@ -15877,25 +15877,25 @@
         <v>255</v>
       </c>
       <c r="B250">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C250">
         <v>1</v>
       </c>
       <c r="D250">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E250">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="F250">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="G250" t="b">
         <v>1</v>
       </c>
       <c r="H250">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="J250" s="1" t="s">
         <v>432</v>
@@ -15927,25 +15927,25 @@
         <v>256</v>
       </c>
       <c r="B251">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C251">
         <v>1</v>
       </c>
       <c r="D251">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E251">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="F251">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="G251" t="b">
         <v>1</v>
       </c>
       <c r="H251">
-        <v>64</v>
+        <v>225</v>
       </c>
       <c r="J251" s="1" t="s">
         <v>433</v>
@@ -15977,28 +15977,28 @@
         <v>257</v>
       </c>
       <c r="B252">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C252">
         <v>1</v>
       </c>
       <c r="D252">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="E252">
-        <v>0.67</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F252">
-        <v>0.33</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G252" t="b">
         <v>1</v>
       </c>
       <c r="H252">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J252" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K252">
         <v>0.001157138629178849</v>
@@ -16027,28 +16027,28 @@
         <v>258</v>
       </c>
       <c r="B253">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C253">
         <v>1</v>
       </c>
       <c r="D253">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E253">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F253">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G253" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H253">
-        <v>225</v>
+        <v>44</v>
       </c>
       <c r="J253" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K253">
         <v>0.001157138629178849</v>
@@ -16077,25 +16077,25 @@
         <v>259</v>
       </c>
       <c r="B254">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C254">
         <v>1</v>
       </c>
       <c r="D254">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="E254">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F254">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G254" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H254">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="J254" s="1" t="s">
         <v>434</v>
@@ -16127,7 +16127,7 @@
         <v>260</v>
       </c>
       <c r="B255">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C255">
         <v>1</v>
@@ -16145,7 +16145,7 @@
         <v>0</v>
       </c>
       <c r="H255">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="J255" s="1" t="s">
         <v>435</v>
@@ -16177,25 +16177,25 @@
         <v>261</v>
       </c>
       <c r="B256">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C256">
         <v>1</v>
       </c>
       <c r="D256">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E256">
-        <v>0</v>
+        <v>0.89</v>
       </c>
       <c r="F256">
-        <v>1</v>
+        <v>0.11</v>
       </c>
       <c r="G256" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H256">
-        <v>27</v>
+        <v>155</v>
       </c>
       <c r="J256" s="1" t="s">
         <v>436</v>
@@ -16227,25 +16227,25 @@
         <v>262</v>
       </c>
       <c r="B257">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C257">
         <v>1</v>
       </c>
       <c r="D257">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E257">
-        <v>0</v>
+        <v>0.91</v>
       </c>
       <c r="F257">
-        <v>1</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G257" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H257">
-        <v>89</v>
+        <v>56</v>
       </c>
       <c r="J257" s="1" t="s">
         <v>437</v>
@@ -16277,28 +16277,28 @@
         <v>263</v>
       </c>
       <c r="B258">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C258">
         <v>1</v>
       </c>
       <c r="D258">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="E258">
-        <v>0.89</v>
+        <v>0.96</v>
       </c>
       <c r="F258">
-        <v>0.11</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G258" t="b">
         <v>1</v>
       </c>
       <c r="H258">
-        <v>155</v>
+        <v>187</v>
       </c>
       <c r="J258" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K258">
         <v>0.001157138629178849</v>
@@ -16327,25 +16327,25 @@
         <v>264</v>
       </c>
       <c r="B259">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C259">
         <v>1</v>
       </c>
       <c r="D259">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E259">
-        <v>0.91</v>
+        <v>0</v>
       </c>
       <c r="F259">
-        <v>0.08999999999999997</v>
+        <v>1</v>
       </c>
       <c r="G259" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H259">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="J259" s="1" t="s">
         <v>438</v>
@@ -16377,25 +16377,25 @@
         <v>265</v>
       </c>
       <c r="B260">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C260">
         <v>1</v>
       </c>
       <c r="D260">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="E260">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="F260">
-        <v>0.04000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G260" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H260">
-        <v>187</v>
+        <v>17</v>
       </c>
       <c r="J260" s="1" t="s">
         <v>439</v>
@@ -16427,25 +16427,25 @@
         <v>266</v>
       </c>
       <c r="B261">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C261">
         <v>1</v>
       </c>
       <c r="D261">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="E261">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F261">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G261" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H261">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="J261" s="1" t="s">
         <v>440</v>
@@ -16477,7 +16477,7 @@
         <v>267</v>
       </c>
       <c r="B262">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C262">
         <v>1</v>
@@ -16495,7 +16495,7 @@
         <v>0</v>
       </c>
       <c r="H262">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J262" s="1" t="s">
         <v>441</v>
@@ -16527,25 +16527,25 @@
         <v>268</v>
       </c>
       <c r="B263">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C263">
         <v>1</v>
       </c>
       <c r="D263">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="E263">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F263">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G263" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H263">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="J263" s="1" t="s">
         <v>442</v>
@@ -16577,7 +16577,7 @@
         <v>269</v>
       </c>
       <c r="B264">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C264">
         <v>1</v>
@@ -16595,7 +16595,7 @@
         <v>0</v>
       </c>
       <c r="H264">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="J264" s="1" t="s">
         <v>443</v>
@@ -16627,7 +16627,7 @@
         <v>270</v>
       </c>
       <c r="B265">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C265">
         <v>1</v>
@@ -16645,7 +16645,7 @@
         <v>0</v>
       </c>
       <c r="H265">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="J265" s="1" t="s">
         <v>444</v>
@@ -16677,7 +16677,7 @@
         <v>271</v>
       </c>
       <c r="B266">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C266">
         <v>1</v>
@@ -16695,7 +16695,7 @@
         <v>0</v>
       </c>
       <c r="H266">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J266" s="1" t="s">
         <v>445</v>
@@ -16727,7 +16727,7 @@
         <v>272</v>
       </c>
       <c r="B267">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C267">
         <v>1</v>
@@ -16745,7 +16745,7 @@
         <v>0</v>
       </c>
       <c r="H267">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="J267" s="1" t="s">
         <v>446</v>
@@ -16777,7 +16777,7 @@
         <v>273</v>
       </c>
       <c r="B268">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C268">
         <v>1</v>
@@ -16795,7 +16795,7 @@
         <v>0</v>
       </c>
       <c r="H268">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J268" s="1" t="s">
         <v>447</v>
@@ -16827,7 +16827,7 @@
         <v>274</v>
       </c>
       <c r="B269">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C269">
         <v>1</v>
@@ -16845,7 +16845,7 @@
         <v>0</v>
       </c>
       <c r="H269">
-        <v>9</v>
+        <v>165</v>
       </c>
       <c r="J269" s="1" t="s">
         <v>448</v>
@@ -16877,7 +16877,7 @@
         <v>275</v>
       </c>
       <c r="B270">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C270">
         <v>1</v>
@@ -16895,7 +16895,7 @@
         <v>0</v>
       </c>
       <c r="H270">
-        <v>9</v>
+        <v>126</v>
       </c>
       <c r="J270" s="1" t="s">
         <v>449</v>
@@ -16927,7 +16927,7 @@
         <v>276</v>
       </c>
       <c r="B271">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C271">
         <v>1</v>
@@ -16945,7 +16945,7 @@
         <v>0</v>
       </c>
       <c r="H271">
-        <v>165</v>
+        <v>25</v>
       </c>
       <c r="J271" s="1" t="s">
         <v>450</v>
@@ -16973,30 +16973,6 @@
       </c>
     </row>
     <row r="272" spans="1:17">
-      <c r="A272" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="B272">
-        <v>0.002463147763683804</v>
-      </c>
-      <c r="C272">
-        <v>1</v>
-      </c>
-      <c r="D272">
-        <v>1</v>
-      </c>
-      <c r="E272">
-        <v>0</v>
-      </c>
-      <c r="F272">
-        <v>1</v>
-      </c>
-      <c r="G272" t="b">
-        <v>0</v>
-      </c>
-      <c r="H272">
-        <v>126</v>
-      </c>
       <c r="J272" s="1" t="s">
         <v>451</v>
       </c>
@@ -17022,31 +16998,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="273" spans="1:17">
-      <c r="A273" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="B273">
-        <v>0.002463147763683804</v>
-      </c>
-      <c r="C273">
-        <v>1</v>
-      </c>
-      <c r="D273">
-        <v>1</v>
-      </c>
-      <c r="E273">
-        <v>0</v>
-      </c>
-      <c r="F273">
-        <v>1</v>
-      </c>
-      <c r="G273" t="b">
-        <v>0</v>
-      </c>
-      <c r="H273">
-        <v>25</v>
-      </c>
+    <row r="273" spans="10:17">
       <c r="J273" s="1" t="s">
         <v>452</v>
       </c>
@@ -17072,7 +17024,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="274" spans="1:17">
+    <row r="274" spans="10:17">
       <c r="J274" s="1" t="s">
         <v>453</v>
       </c>
@@ -17098,9 +17050,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="275" spans="1:17">
+    <row r="275" spans="10:17">
       <c r="J275" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K275">
         <v>0.001002111448569185</v>
@@ -17124,7 +17076,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="276" spans="1:17">
+    <row r="276" spans="10:17">
       <c r="J276" s="1" t="s">
         <v>454</v>
       </c>
@@ -17150,7 +17102,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="277" spans="1:17">
+    <row r="277" spans="10:17">
       <c r="J277" s="1" t="s">
         <v>455</v>
       </c>
@@ -17176,7 +17128,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="278" spans="1:17">
+    <row r="278" spans="10:17">
       <c r="J278" s="1" t="s">
         <v>456</v>
       </c>
@@ -17202,7 +17154,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="279" spans="1:17">
+    <row r="279" spans="10:17">
       <c r="J279" s="1" t="s">
         <v>457</v>
       </c>
@@ -17228,7 +17180,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="280" spans="1:17">
+    <row r="280" spans="10:17">
       <c r="J280" s="1" t="s">
         <v>458</v>
       </c>
@@ -17254,7 +17206,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="281" spans="1:17">
+    <row r="281" spans="10:17">
       <c r="J281" s="1" t="s">
         <v>459</v>
       </c>
@@ -17280,7 +17232,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="282" spans="1:17">
+    <row r="282" spans="10:17">
       <c r="J282" s="1" t="s">
         <v>460</v>
       </c>
@@ -17306,7 +17258,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="283" spans="1:17">
+    <row r="283" spans="10:17">
       <c r="J283" s="1" t="s">
         <v>461</v>
       </c>
@@ -17332,7 +17284,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="284" spans="1:17">
+    <row r="284" spans="10:17">
       <c r="J284" s="1" t="s">
         <v>462</v>
       </c>
@@ -17358,9 +17310,9 @@
         <v>54</v>
       </c>
     </row>
-    <row r="285" spans="1:17">
+    <row r="285" spans="10:17">
       <c r="J285" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K285">
         <v>0.001002111448569185</v>
@@ -17384,7 +17336,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="286" spans="1:17">
+    <row r="286" spans="10:17">
       <c r="J286" s="1" t="s">
         <v>463</v>
       </c>
@@ -17410,7 +17362,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="287" spans="1:17">
+    <row r="287" spans="10:17">
       <c r="J287" s="1" t="s">
         <v>464</v>
       </c>
@@ -17436,7 +17388,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="288" spans="1:17">
+    <row r="288" spans="10:17">
       <c r="J288" s="1" t="s">
         <v>465</v>
       </c>
@@ -17464,7 +17416,7 @@
     </row>
     <row r="289" spans="10:17">
       <c r="J289" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K289">
         <v>0.001002111448569185</v>
@@ -17516,7 +17468,7 @@
     </row>
     <row r="291" spans="10:17">
       <c r="J291" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K291">
         <v>0.001002111448569185</v>
@@ -17620,7 +17572,7 @@
     </row>
     <row r="295" spans="10:17">
       <c r="J295" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K295">
         <v>0.001002111448569185</v>
@@ -17646,7 +17598,7 @@
     </row>
     <row r="296" spans="10:17">
       <c r="J296" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K296">
         <v>0.001002111448569185</v>
@@ -17880,7 +17832,7 @@
     </row>
     <row r="305" spans="10:17">
       <c r="J305" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K305">
         <v>0.001002111448569185</v>
@@ -18062,7 +18014,7 @@
     </row>
     <row r="312" spans="10:17">
       <c r="J312" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K312">
         <v>0.001002111448569185</v>
@@ -18400,7 +18352,7 @@
     </row>
     <row r="325" spans="10:17">
       <c r="J325" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K325">
         <v>0.001002111448569185</v>
@@ -18504,7 +18456,7 @@
     </row>
     <row r="329" spans="10:17">
       <c r="J329" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K329">
         <v>0.001002111448569185</v>
@@ -19258,7 +19210,7 @@
     </row>
     <row r="358" spans="10:17">
       <c r="J358" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K358">
         <v>0.0008182205714652703</v>
@@ -19674,7 +19626,7 @@
     </row>
     <row r="374" spans="10:17">
       <c r="J374" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K374">
         <v>0.0008182205714652703</v>
@@ -19882,7 +19834,7 @@
     </row>
     <row r="382" spans="10:17">
       <c r="J382" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K382">
         <v>0.0008182205714652703</v>
@@ -19960,7 +19912,7 @@
     </row>
     <row r="385" spans="10:17">
       <c r="J385" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K385">
         <v>0.0008182205714652703</v>
@@ -20116,7 +20068,7 @@
     </row>
     <row r="391" spans="10:17">
       <c r="J391" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K391">
         <v>0.0008182205714652703</v>
@@ -20610,7 +20562,7 @@
     </row>
     <row r="410" spans="10:17">
       <c r="J410" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K410">
         <v>0.0008182205714652703</v>
@@ -21078,7 +21030,7 @@
     </row>
     <row r="428" spans="10:17">
       <c r="J428" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K428">
         <v>0.0008182205714652703</v>
@@ -21390,7 +21342,7 @@
     </row>
     <row r="440" spans="10:17">
       <c r="J440" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K440">
         <v>0.0008182205714652703</v>
@@ -21468,7 +21420,7 @@
     </row>
     <row r="443" spans="10:17">
       <c r="J443" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K443">
         <v>0.0008182205714652703</v>
@@ -21754,7 +21706,7 @@
     </row>
     <row r="454" spans="10:17">
       <c r="J454" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K454">
         <v>0.0008182205714652703</v>
@@ -21910,7 +21862,7 @@
     </row>
     <row r="460" spans="10:17">
       <c r="J460" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K460">
         <v>0.0008182205714652703</v>
@@ -22300,7 +22252,7 @@
     </row>
     <row r="475" spans="10:17">
       <c r="J475" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K475">
         <v>0.0008182205714652703</v>
@@ -22482,7 +22434,7 @@
     </row>
     <row r="482" spans="10:17">
       <c r="J482" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K482">
         <v>0.0008182205714652703</v>
@@ -22898,7 +22850,7 @@
     </row>
     <row r="498" spans="10:17">
       <c r="J498" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K498">
         <v>0.0008182205714652703</v>
@@ -22950,7 +22902,7 @@
     </row>
     <row r="500" spans="10:17">
       <c r="J500" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K500">
         <v>0.0008182205714652703</v>
@@ -23080,7 +23032,7 @@
     </row>
     <row r="505" spans="10:17">
       <c r="J505" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K505">
         <v>0.0008182205714652703</v>
@@ -23600,7 +23552,7 @@
     </row>
     <row r="525" spans="10:17">
       <c r="J525" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K525">
         <v>0.0005785693145894247</v>
@@ -24744,7 +24696,7 @@
     </row>
     <row r="569" spans="10:17">
       <c r="J569" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K569">
         <v>0.0005785693145894247</v>
@@ -25628,7 +25580,7 @@
     </row>
     <row r="603" spans="10:17">
       <c r="J603" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K603">
         <v>0.0005785693145894247</v>
@@ -25914,7 +25866,7 @@
     </row>
     <row r="614" spans="10:17">
       <c r="J614" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K614">
         <v>0.0005785693145894247</v>
@@ -26798,7 +26750,7 @@
     </row>
     <row r="648" spans="10:17">
       <c r="J648" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K648">
         <v>0.0005785693145894247</v>
@@ -27370,7 +27322,7 @@
     </row>
     <row r="670" spans="10:17">
       <c r="J670" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K670">
         <v>0.0005785693145894247</v>
@@ -29684,7 +29636,7 @@
     </row>
     <row r="759" spans="10:17">
       <c r="J759" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K759">
         <v>0.0005785693145894247</v>
@@ -30100,7 +30052,7 @@
     </row>
     <row r="775" spans="10:17">
       <c r="J775" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K775">
         <v>0.0005785693145894247</v>
@@ -30438,7 +30390,7 @@
     </row>
     <row r="788" spans="10:17">
       <c r="J788" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K788">
         <v>0.0005785693145894247</v>
@@ -32908,7 +32860,7 @@
     </row>
     <row r="883" spans="10:17">
       <c r="J883" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K883">
         <v>0.0005785693145894247</v>
@@ -32986,7 +32938,7 @@
     </row>
     <row r="886" spans="10:17">
       <c r="J886" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K886">
         <v>0.0005785693145894247</v>
